--- a/LVDS Buffers/HSMC_B_Pinout.xlsx
+++ b/LVDS Buffers/HSMC_B_Pinout.xlsx
@@ -5,24 +5,25 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rfranca\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rfranca\Development\GitHub\SimuCam_Development\LVDS Buffers\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8610"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8610" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="DE4 HSMC B Pinout" sheetId="1" r:id="rId1"/>
-    <sheet name="LVDS Board HSMC Pinout" sheetId="2" r:id="rId2"/>
-    <sheet name="LVDS Board Conectors Pinout" sheetId="4" r:id="rId3"/>
-    <sheet name="LVDS Board SpW Reference" sheetId="5" r:id="rId4"/>
-    <sheet name="SpaceWire - Axon Conector" sheetId="6" r:id="rId5"/>
+    <sheet name="Plan1" sheetId="7" r:id="rId2"/>
+    <sheet name="LVDS Board HSMC Pinout" sheetId="2" r:id="rId3"/>
+    <sheet name="LVDS Board Conectors Pinout" sheetId="4" r:id="rId4"/>
+    <sheet name="LVDS Board SpW Reference" sheetId="5" r:id="rId5"/>
+    <sheet name="SpaceWire - Axon Conector" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'LVDS Board Conectors Pinout'!$B$2:$H$82</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'LVDS Board HSMC Pinout'!$B$2:$F$122</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'LVDS Board SpW Reference'!$B$2:$E$58</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'SpaceWire - Axon Conector'!$B$2:$F$22</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'LVDS Board Conectors Pinout'!$B$2:$H$82</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'LVDS Board HSMC Pinout'!$B$2:$F$122</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'LVDS Board SpW Reference'!$B$2:$E$58</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'SpaceWire - Axon Conector'!$B$2:$F$22</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1252" uniqueCount="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1300" uniqueCount="504">
   <si>
     <t>HSMC Port B Pin Assignments, Schematic Signal Names, and Functions</t>
   </si>
@@ -1501,6 +1502,51 @@
   </si>
   <si>
     <t>TX13_ND</t>
+  </si>
+  <si>
+    <t>LVDS</t>
+  </si>
+  <si>
+    <t>HSMC_RX_DI_p[0]</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Input Termination</t>
+  </si>
+  <si>
+    <t>Differential</t>
+  </si>
+  <si>
+    <t>HSMC_RX_SI_p[0]</t>
+  </si>
+  <si>
+    <t>HSMC_TX_DO_p[0]</t>
+  </si>
+  <si>
+    <t>HSMC_TX_SO_p[0]</t>
+  </si>
+  <si>
+    <t>HSMB_driverPowerDown</t>
+  </si>
+  <si>
+    <t>HSMB_driverPreEmphasis[1]</t>
+  </si>
+  <si>
+    <t>HSMB_driverPreEmphasis[0]</t>
+  </si>
+  <si>
+    <t>2.5 V</t>
+  </si>
+  <si>
+    <t>To</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Assingment Name</t>
   </si>
 </sst>
 </file>
@@ -1552,10 +1598,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1838,7 +1884,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F163"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1850,13 +1896,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
@@ -4605,6 +4651,197 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D5:F22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="5" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>501</v>
+      </c>
+      <c r="E5" t="s">
+        <v>503</v>
+      </c>
+      <c r="F5" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="7" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>490</v>
+      </c>
+      <c r="E7" t="s">
+        <v>491</v>
+      </c>
+      <c r="F7" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="8" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>490</v>
+      </c>
+      <c r="E8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="9" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>490</v>
+      </c>
+      <c r="E9" t="s">
+        <v>492</v>
+      </c>
+      <c r="F9" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="10" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>494</v>
+      </c>
+      <c r="E10" t="s">
+        <v>491</v>
+      </c>
+      <c r="F10" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="11" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>494</v>
+      </c>
+      <c r="E11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="12" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>494</v>
+      </c>
+      <c r="E12" t="s">
+        <v>492</v>
+      </c>
+      <c r="F12" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="13" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>495</v>
+      </c>
+      <c r="E13" t="s">
+        <v>491</v>
+      </c>
+      <c r="F13" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="14" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>495</v>
+      </c>
+      <c r="E14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="15" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>496</v>
+      </c>
+      <c r="E15" t="s">
+        <v>491</v>
+      </c>
+      <c r="F15" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="16" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>496</v>
+      </c>
+      <c r="E16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="18" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>497</v>
+      </c>
+      <c r="E18" t="s">
+        <v>491</v>
+      </c>
+      <c r="F18" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="19" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>498</v>
+      </c>
+      <c r="E19" t="s">
+        <v>491</v>
+      </c>
+      <c r="F19" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="20" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>499</v>
+      </c>
+      <c r="E20" t="s">
+        <v>491</v>
+      </c>
+      <c r="F20" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="21" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>498</v>
+      </c>
+      <c r="E21" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="22" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>499</v>
+      </c>
+      <c r="E22" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" t="s">
+        <v>500</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F252"/>
   <sheetViews>
@@ -4637,7 +4874,7 @@
       <c r="C3" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D3" s="4"/>
+      <c r="D3" s="3"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
@@ -6186,7 +6423,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H82"/>
   <sheetViews>
@@ -8232,7 +8469,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
   <dimension ref="B2:G58"/>
@@ -8543,7 +8780,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F22"/>
   <sheetViews>

--- a/LVDS Buffers/HSMC_B_Pinout.xlsx
+++ b/LVDS Buffers/HSMC_B_Pinout.xlsx
@@ -1,31 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rfranca\Development\GitHub\SimuCam_Development\LVDS Buffers\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rfranca\Dev\GitHub\SimuCam_Development\LVDS Buffers\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8610" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="3855" firstSheet="5" activeTab="6" xr2:uid="{5A5778FA-B7D5-4E74-ADCB-8E59276416A1}"/>
   </bookViews>
   <sheets>
     <sheet name="DE4 HSMC B Pinout" sheetId="1" r:id="rId1"/>
-    <sheet name="Plan1" sheetId="7" r:id="rId2"/>
-    <sheet name="LVDS Board HSMC Pinout" sheetId="2" r:id="rId3"/>
-    <sheet name="LVDS Board Conectors Pinout" sheetId="4" r:id="rId4"/>
-    <sheet name="LVDS Board SpW Reference" sheetId="5" r:id="rId5"/>
-    <sheet name="SpaceWire - Axon Conector" sheetId="6" r:id="rId6"/>
+    <sheet name="LVDS Board HSMC Pinout" sheetId="2" r:id="rId2"/>
+    <sheet name="LVDS Board Conectors Pinout" sheetId="4" r:id="rId3"/>
+    <sheet name="LVDS Board SpW Reference" sheetId="5" r:id="rId4"/>
+    <sheet name="SpaceWire - Axon Conector" sheetId="6" r:id="rId5"/>
+    <sheet name="Stratix IV GX Pin Mapping" sheetId="8" r:id="rId6"/>
+    <sheet name="Quartus Pin Assingments" sheetId="9" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'LVDS Board Conectors Pinout'!$B$2:$H$82</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'LVDS Board HSMC Pinout'!$B$2:$F$122</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'LVDS Board SpW Reference'!$B$2:$E$58</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'SpaceWire - Axon Conector'!$B$2:$F$22</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'LVDS Board Conectors Pinout'!$B$2:$H$82</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'LVDS Board HSMC Pinout'!$B$2:$C$162</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'LVDS Board SpW Reference'!$B$2:$E$58</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Quartus Pin Assingments'!$B$2:$D$200</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'SpaceWire - Axon Conector'!$B$2:$F$22</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Stratix IV GX Pin Mapping'!$B$2:$H$69</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1300" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1993" uniqueCount="567">
   <si>
     <t>HSMC Port B Pin Assignments, Schematic Signal Names, and Functions</t>
   </si>
@@ -1507,9 +1510,6 @@
     <t>LVDS</t>
   </si>
   <si>
-    <t>HSMC_RX_DI_p[0]</t>
-  </si>
-  <si>
     <t>Location</t>
   </si>
   <si>
@@ -1519,24 +1519,6 @@
     <t>Differential</t>
   </si>
   <si>
-    <t>HSMC_RX_SI_p[0]</t>
-  </si>
-  <si>
-    <t>HSMC_TX_DO_p[0]</t>
-  </si>
-  <si>
-    <t>HSMC_TX_SO_p[0]</t>
-  </si>
-  <si>
-    <t>HSMB_driverPowerDown</t>
-  </si>
-  <si>
-    <t>HSMB_driverPreEmphasis[1]</t>
-  </si>
-  <si>
-    <t>HSMB_driverPreEmphasis[0]</t>
-  </si>
-  <si>
     <t>2.5 V</t>
   </si>
   <si>
@@ -1546,13 +1528,223 @@
     <t>Value</t>
   </si>
   <si>
-    <t>Assingment Name</t>
+    <t>HSMB_LVDS_RX_SPWA_DI_P</t>
+  </si>
+  <si>
+    <t>HSMB_LVDS_RX_SPWA_DI_N</t>
+  </si>
+  <si>
+    <t>HSMB_LVDS_RX_SPWA_SI_P</t>
+  </si>
+  <si>
+    <t>HSMB_LVDS_RX_SPWA_SI_N</t>
+  </si>
+  <si>
+    <t>HSMB_LVDS_TX_SPWA_DO_P</t>
+  </si>
+  <si>
+    <t>HSMB_LVDS_TX_SPWA_DO_N</t>
+  </si>
+  <si>
+    <t>HSMB_LVDS_TX_SPWA_SO_P</t>
+  </si>
+  <si>
+    <t>HSMB_LVDS_TX_SPWA_SO_N</t>
+  </si>
+  <si>
+    <t>HSMB_LVDS_RX_SPWB_DI_P</t>
+  </si>
+  <si>
+    <t>HSMB_LVDS_RX_SPWB_DI_N</t>
+  </si>
+  <si>
+    <t>HSMB_LVDS_RX_SPWB_SI_P</t>
+  </si>
+  <si>
+    <t>HSMB_LVDS_RX_SPWB_SI_N</t>
+  </si>
+  <si>
+    <t>HSMB_LVDS_TX_SPWB_DO_P</t>
+  </si>
+  <si>
+    <t>HSMB_LVDS_TX_SPWB_DO_N</t>
+  </si>
+  <si>
+    <t>HSMB_LVDS_TX_SPWB_SO_P</t>
+  </si>
+  <si>
+    <t>HSMB_LVDS_TX_SPWB_SO_N</t>
+  </si>
+  <si>
+    <t>HSMB_LVDS_RX_SPWC_DI_P</t>
+  </si>
+  <si>
+    <t>HSMB_LVDS_RX_SPWC_DI_N</t>
+  </si>
+  <si>
+    <t>HSMB_LVDS_RX_SPWC_SI_P</t>
+  </si>
+  <si>
+    <t>HSMB_LVDS_RX_SPWC_SI_N</t>
+  </si>
+  <si>
+    <t>HSMB_LVDS_TX_SPWC_DO_P</t>
+  </si>
+  <si>
+    <t>HSMB_LVDS_TX_SPWC_DO_N</t>
+  </si>
+  <si>
+    <t>HSMB_LVDS_TX_SPWC_SO_P</t>
+  </si>
+  <si>
+    <t>HSMB_LVDS_TX_SPWC_SO_N</t>
+  </si>
+  <si>
+    <t>HSMB_LVDS_RX_SPWD_DI_P</t>
+  </si>
+  <si>
+    <t>HSMB_LVDS_RX_SPWD_DI_N</t>
+  </si>
+  <si>
+    <t>HSMB_LVDS_RX_SPWD_SI_P</t>
+  </si>
+  <si>
+    <t>HSMB_LVDS_RX_SPWD_SI_N</t>
+  </si>
+  <si>
+    <t>HSMB_LVDS_TX_SPWD_DO_P</t>
+  </si>
+  <si>
+    <t>HSMB_LVDS_TX_SPWD_DO_N</t>
+  </si>
+  <si>
+    <t>HSMB_LVDS_TX_SPWD_SO_P</t>
+  </si>
+  <si>
+    <t>HSMB_LVDS_TX_SPWD_SO_N</t>
+  </si>
+  <si>
+    <t>HSMB_LVDS_RX_SPWE_DI_P</t>
+  </si>
+  <si>
+    <t>HSMB_LVDS_RX_SPWE_DI_N</t>
+  </si>
+  <si>
+    <t>HSMB_LVDS_RX_SPWE_SI_P</t>
+  </si>
+  <si>
+    <t>HSMB_LVDS_RX_SPWE_SI_N</t>
+  </si>
+  <si>
+    <t>HSMB_LVDS_TX_SPWE_DO_P</t>
+  </si>
+  <si>
+    <t>HSMB_LVDS_TX_SPWE_DO_N</t>
+  </si>
+  <si>
+    <t>HSMB_LVDS_TX_SPWE_SO_P</t>
+  </si>
+  <si>
+    <t>HSMB_LVDS_TX_SPWE_SO_N</t>
+  </si>
+  <si>
+    <t>HSMB_LVDS_RX_SPWF_DI_P</t>
+  </si>
+  <si>
+    <t>HSMB_LVDS_RX_SPWF_DI_N</t>
+  </si>
+  <si>
+    <t>HSMB_LVDS_RX_SPWF_SI_P</t>
+  </si>
+  <si>
+    <t>HSMB_LVDS_RX_SPWF_SI_N</t>
+  </si>
+  <si>
+    <t>HSMB_LVDS_TX_SPWF_DO_P</t>
+  </si>
+  <si>
+    <t>HSMB_LVDS_TX_SPWF_DO_N</t>
+  </si>
+  <si>
+    <t>HSMB_LVDS_TX_SPWF_SO_P</t>
+  </si>
+  <si>
+    <t>HSMB_LVDS_TX_SPWF_SO_N</t>
+  </si>
+  <si>
+    <t>HSMB_LVDS_RX_SPWG_DI_P</t>
+  </si>
+  <si>
+    <t>HSMB_LVDS_RX_SPWG_DI_N</t>
+  </si>
+  <si>
+    <t>HSMB_LVDS_RX_SPWG_SI_P</t>
+  </si>
+  <si>
+    <t>HSMB_LVDS_RX_SPWG_SI_N</t>
+  </si>
+  <si>
+    <t>HSMB_LVDS_TX_SPWG_DO_P</t>
+  </si>
+  <si>
+    <t>HSMB_LVDS_TX_SPWG_DO_N</t>
+  </si>
+  <si>
+    <t>HSMB_LVDS_TX_SPWG_SO_P</t>
+  </si>
+  <si>
+    <t>HSMB_LVDS_TX_SPWG_SO_N</t>
+  </si>
+  <si>
+    <t>HSMB_LVDS_RX_SPWH_DI_P</t>
+  </si>
+  <si>
+    <t>HSMB_LVDS_RX_SPWH_DI_N</t>
+  </si>
+  <si>
+    <t>HSMB_LVDS_RX_SPWH_SI_P</t>
+  </si>
+  <si>
+    <t>HSMB_LVDS_RX_SPWH_SI_N</t>
+  </si>
+  <si>
+    <t>HSMB_LVDS_TX_SPWH_DO_P</t>
+  </si>
+  <si>
+    <t>HSMB_LVDS_TX_SPWH_DO_N</t>
+  </si>
+  <si>
+    <t>HSMB_LVDS_TX_SPWH_SO_P</t>
+  </si>
+  <si>
+    <t>HSMB_LVDS_TX_SPWH_SO_N</t>
+  </si>
+  <si>
+    <t>HSMB_BUFFER_PEM0</t>
+  </si>
+  <si>
+    <t>HSMB_BUFFER_PEM1</t>
+  </si>
+  <si>
+    <t>LVDS Board HSMC Signal</t>
+  </si>
+  <si>
+    <t>Project Signal Name</t>
+  </si>
+  <si>
+    <t>HSMB_BUFFER_PWDN_N</t>
+  </si>
+  <si>
+    <t>LVDS Board HSMC Pin / HSMB Pin</t>
+  </si>
+  <si>
+    <t>Assignment Name</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1590,7 +1782,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1602,6 +1794,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1881,10 +2077,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:F163"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1896,13 +2094,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
@@ -4651,206 +4849,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D5:F22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A2:F252"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C163" sqref="C163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="5" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D5" t="s">
-        <v>501</v>
-      </c>
-      <c r="E5" t="s">
-        <v>503</v>
-      </c>
-      <c r="F5" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="7" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D7" t="s">
-        <v>490</v>
-      </c>
-      <c r="E7" t="s">
-        <v>491</v>
-      </c>
-      <c r="F7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="8" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D8" t="s">
-        <v>490</v>
-      </c>
-      <c r="E8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="9" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D9" t="s">
-        <v>490</v>
-      </c>
-      <c r="E9" t="s">
-        <v>492</v>
-      </c>
-      <c r="F9" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="10" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D10" t="s">
-        <v>494</v>
-      </c>
-      <c r="E10" t="s">
-        <v>491</v>
-      </c>
-      <c r="F10" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="11" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D11" t="s">
-        <v>494</v>
-      </c>
-      <c r="E11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F11" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="12" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D12" t="s">
-        <v>494</v>
-      </c>
-      <c r="E12" t="s">
-        <v>492</v>
-      </c>
-      <c r="F12" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="13" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D13" t="s">
-        <v>495</v>
-      </c>
-      <c r="E13" t="s">
-        <v>491</v>
-      </c>
-      <c r="F13" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="14" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D14" t="s">
-        <v>495</v>
-      </c>
-      <c r="E14" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="15" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D15" t="s">
-        <v>496</v>
-      </c>
-      <c r="E15" t="s">
-        <v>491</v>
-      </c>
-      <c r="F15" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="16" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D16" t="s">
-        <v>496</v>
-      </c>
-      <c r="E16" t="s">
-        <v>4</v>
-      </c>
-      <c r="F16" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="18" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D18" t="s">
-        <v>497</v>
-      </c>
-      <c r="E18" t="s">
-        <v>491</v>
-      </c>
-      <c r="F18" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="19" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D19" t="s">
-        <v>498</v>
-      </c>
-      <c r="E19" t="s">
-        <v>491</v>
-      </c>
-      <c r="F19" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="20" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D20" t="s">
-        <v>499</v>
-      </c>
-      <c r="E20" t="s">
-        <v>491</v>
-      </c>
-      <c r="F20" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="21" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D21" t="s">
-        <v>498</v>
-      </c>
-      <c r="E21" t="s">
-        <v>4</v>
-      </c>
-      <c r="F21" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="22" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D22" t="s">
-        <v>499</v>
-      </c>
-      <c r="E22" t="s">
-        <v>4</v>
-      </c>
-      <c r="F22" t="s">
-        <v>500</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F252"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23.42578125" bestFit="1" customWidth="1"/>
@@ -4867,7 +4877,7 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2">
         <v>1</v>
       </c>
@@ -4876,7 +4886,7 @@
       </c>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
         <v>2</v>
       </c>
@@ -4884,7 +4894,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
         <v>3</v>
       </c>
@@ -4892,7 +4902,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B6" s="2">
         <v>4</v>
       </c>
@@ -4900,7 +4910,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B7" s="2">
         <v>5</v>
       </c>
@@ -4908,7 +4918,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B8" s="2">
         <v>6</v>
       </c>
@@ -4916,7 +4926,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B9" s="2">
         <v>7</v>
       </c>
@@ -4924,7 +4934,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B10" s="2">
         <v>8</v>
       </c>
@@ -4932,7 +4942,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B11" s="2">
         <v>9</v>
       </c>
@@ -4940,7 +4950,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B12" s="2">
         <v>10</v>
       </c>
@@ -4948,7 +4958,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B13" s="2">
         <v>11</v>
       </c>
@@ -4956,7 +4966,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B14" s="2">
         <v>12</v>
       </c>
@@ -4964,7 +4974,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B15" s="2">
         <v>13</v>
       </c>
@@ -4972,7 +4982,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B16" s="2">
         <v>14</v>
       </c>
@@ -4980,7 +4990,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B17" s="2">
         <v>15</v>
       </c>
@@ -4988,7 +4998,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B18" s="2">
         <v>16</v>
       </c>
@@ -4996,7 +5006,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B19" s="2">
         <v>17</v>
       </c>
@@ -5004,7 +5014,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B20" s="2">
         <v>18</v>
       </c>
@@ -5012,7 +5022,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B21" s="2">
         <v>19</v>
       </c>
@@ -5020,7 +5030,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B22" s="2">
         <v>20</v>
       </c>
@@ -5028,7 +5038,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B23" s="2">
         <v>21</v>
       </c>
@@ -5036,7 +5046,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B24" s="2">
         <v>22</v>
       </c>
@@ -5044,7 +5054,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B25" s="2">
         <v>23</v>
       </c>
@@ -5052,7 +5062,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B26" s="2">
         <v>24</v>
       </c>
@@ -5060,7 +5070,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B27" s="2">
         <v>25</v>
       </c>
@@ -5068,7 +5078,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B28" s="2">
         <v>26</v>
       </c>
@@ -5076,7 +5086,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B29" s="2">
         <v>27</v>
       </c>
@@ -5084,7 +5094,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B30" s="2">
         <v>28</v>
       </c>
@@ -5092,7 +5102,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B31" s="2">
         <v>29</v>
       </c>
@@ -5100,7 +5110,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B32" s="2">
         <v>30</v>
       </c>
@@ -5108,7 +5118,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B33" s="2">
         <v>31</v>
       </c>
@@ -5116,7 +5126,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B34" s="2">
         <v>32</v>
       </c>
@@ -5124,7 +5134,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B35" s="2">
         <v>33</v>
       </c>
@@ -5132,7 +5142,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B36" s="2">
         <v>34</v>
       </c>
@@ -5140,7 +5150,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B37" s="2">
         <v>35</v>
       </c>
@@ -5148,7 +5158,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B38" s="2">
         <v>36</v>
       </c>
@@ -5156,7 +5166,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B39" s="2">
         <v>37</v>
       </c>
@@ -5164,7 +5174,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B40" s="2">
         <v>38</v>
       </c>
@@ -5172,7 +5182,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B41" s="2">
         <v>39</v>
       </c>
@@ -5180,7 +5190,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B42" s="2">
         <v>40</v>
       </c>
@@ -5188,7 +5198,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B43" s="2">
         <v>41</v>
       </c>
@@ -5196,7 +5206,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B44" s="2">
         <v>42</v>
       </c>
@@ -5204,7 +5214,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B45" s="2">
         <v>43</v>
       </c>
@@ -5212,7 +5222,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B46" s="2">
         <v>44</v>
       </c>
@@ -5220,7 +5230,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B47" s="2">
         <v>45</v>
       </c>
@@ -5228,7 +5238,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B48" s="2">
         <v>46</v>
       </c>
@@ -5236,7 +5246,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B49" s="2">
         <v>47</v>
       </c>
@@ -5244,7 +5254,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B50" s="2">
         <v>48</v>
       </c>
@@ -5252,7 +5262,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B51" s="2">
         <v>49</v>
       </c>
@@ -5260,7 +5270,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B52" s="2">
         <v>50</v>
       </c>
@@ -5268,7 +5278,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B53" s="2">
         <v>51</v>
       </c>
@@ -5276,7 +5286,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B54" s="2">
         <v>52</v>
       </c>
@@ -5284,7 +5294,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B55" s="2">
         <v>53</v>
       </c>
@@ -5292,7 +5302,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B56" s="2">
         <v>54</v>
       </c>
@@ -5300,7 +5310,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B57" s="2">
         <v>55</v>
       </c>
@@ -5308,7 +5318,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B58" s="2">
         <v>56</v>
       </c>
@@ -5316,7 +5326,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B59" s="2">
         <v>57</v>
       </c>
@@ -5324,7 +5334,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B60" s="2">
         <v>58</v>
       </c>
@@ -5332,7 +5342,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B61" s="2">
         <v>59</v>
       </c>
@@ -5340,7 +5350,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B62" s="2">
         <v>60</v>
       </c>
@@ -5348,7 +5358,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B63" s="2">
         <v>61</v>
       </c>
@@ -5356,7 +5366,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B64" s="2">
         <v>62</v>
       </c>
@@ -5364,7 +5374,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B65" s="2">
         <v>63</v>
       </c>
@@ -5372,7 +5382,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B66" s="2">
         <v>64</v>
       </c>
@@ -5380,7 +5390,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B67" s="2">
         <v>65</v>
       </c>
@@ -5388,7 +5398,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B68" s="2">
         <v>66</v>
       </c>
@@ -5396,7 +5406,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B69" s="2">
         <v>67</v>
       </c>
@@ -5404,7 +5414,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B70" s="2">
         <v>68</v>
       </c>
@@ -5412,7 +5422,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B71" s="2">
         <v>69</v>
       </c>
@@ -5420,7 +5430,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B72" s="2">
         <v>70</v>
       </c>
@@ -5428,7 +5438,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B73" s="2">
         <v>71</v>
       </c>
@@ -5436,7 +5446,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B74" s="2">
         <v>72</v>
       </c>
@@ -5444,7 +5454,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B75" s="2">
         <v>73</v>
       </c>
@@ -5452,7 +5462,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B76" s="2">
         <v>74</v>
       </c>
@@ -5460,7 +5470,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B77" s="2">
         <v>75</v>
       </c>
@@ -5468,7 +5478,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B78" s="2">
         <v>76</v>
       </c>
@@ -5476,7 +5486,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B79" s="2">
         <v>77</v>
       </c>
@@ -5484,7 +5494,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B80" s="2">
         <v>78</v>
       </c>
@@ -5492,15 +5502,15 @@
         <v>383</v>
       </c>
     </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B81" s="2">
         <v>79</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B82" s="2">
         <v>80</v>
       </c>
@@ -5508,7 +5518,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B83" s="2">
         <v>81</v>
       </c>
@@ -5516,7 +5526,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B84" s="2">
         <v>82</v>
       </c>
@@ -5524,7 +5534,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B85" s="2">
         <v>83</v>
       </c>
@@ -5532,7 +5542,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B86" s="2">
         <v>84</v>
       </c>
@@ -5540,7 +5550,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B87" s="2">
         <v>85</v>
       </c>
@@ -5548,7 +5558,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B88" s="2">
         <v>86</v>
       </c>
@@ -5556,7 +5566,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B89" s="2">
         <v>87</v>
       </c>
@@ -5564,7 +5574,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B90" s="2">
         <v>88</v>
       </c>
@@ -5572,7 +5582,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="91" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B91" s="2">
         <v>89</v>
       </c>
@@ -5580,7 +5590,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="92" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B92" s="2">
         <v>90</v>
       </c>
@@ -5588,7 +5598,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="93" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B93" s="2">
         <v>91</v>
       </c>
@@ -5596,7 +5606,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="94" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B94" s="2">
         <v>92</v>
       </c>
@@ -5604,7 +5614,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="95" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B95" s="2">
         <v>93</v>
       </c>
@@ -5612,7 +5622,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="96" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B96" s="2">
         <v>94</v>
       </c>
@@ -5620,7 +5630,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="97" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B97" s="2">
         <v>95</v>
       </c>
@@ -5628,7 +5638,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="98" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B98" s="2">
         <v>96</v>
       </c>
@@ -5636,7 +5646,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="99" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B99" s="2">
         <v>97</v>
       </c>
@@ -5644,7 +5654,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="100" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B100" s="2">
         <v>98</v>
       </c>
@@ -5652,7 +5662,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="101" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B101" s="2">
         <v>99</v>
       </c>
@@ -5660,7 +5670,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="102" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B102" s="2">
         <v>100</v>
       </c>
@@ -5668,7 +5678,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="103" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B103" s="2">
         <v>101</v>
       </c>
@@ -5676,15 +5686,15 @@
         <v>391</v>
       </c>
     </row>
-    <row r="104" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B104" s="2">
         <v>102</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="105" spans="2:3" x14ac:dyDescent="0.25">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="105" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B105" s="2">
         <v>103</v>
       </c>
@@ -5692,7 +5702,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="106" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B106" s="2">
         <v>104</v>
       </c>
@@ -5700,7 +5710,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="107" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B107" s="2">
         <v>105</v>
       </c>
@@ -5708,7 +5718,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="108" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B108" s="2">
         <v>106</v>
       </c>
@@ -5716,7 +5726,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="109" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B109" s="2">
         <v>107</v>
       </c>
@@ -5724,7 +5734,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="110" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B110" s="2">
         <v>108</v>
       </c>
@@ -5732,7 +5742,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="111" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B111" s="2">
         <v>109</v>
       </c>
@@ -5740,7 +5750,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="112" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B112" s="2">
         <v>110</v>
       </c>
@@ -5748,7 +5758,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="113" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B113" s="2">
         <v>111</v>
       </c>
@@ -5756,7 +5766,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="114" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B114" s="2">
         <v>112</v>
       </c>
@@ -5764,7 +5774,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="115" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B115" s="2">
         <v>113</v>
       </c>
@@ -5772,7 +5782,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="116" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B116" s="2">
         <v>114</v>
       </c>
@@ -5780,7 +5790,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="117" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B117" s="2">
         <v>115</v>
       </c>
@@ -5788,7 +5798,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="118" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B118" s="2">
         <v>116</v>
       </c>
@@ -5796,7 +5806,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="119" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B119" s="2">
         <v>117</v>
       </c>
@@ -5804,7 +5814,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="120" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B120" s="2">
         <v>118</v>
       </c>
@@ -5812,7 +5822,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="121" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B121" s="2">
         <v>119</v>
       </c>
@@ -5820,7 +5830,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="122" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B122" s="2">
         <v>120</v>
       </c>
@@ -5828,7 +5838,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="123" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B123" s="2">
         <v>121</v>
       </c>
@@ -5836,7 +5846,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="124" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B124" s="2">
         <v>122</v>
       </c>
@@ -5844,7 +5854,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="125" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B125" s="2">
         <v>123</v>
       </c>
@@ -5852,7 +5862,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="126" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B126" s="2">
         <v>124</v>
       </c>
@@ -5868,7 +5878,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="128" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B128" s="2">
         <v>126</v>
       </c>
@@ -5881,18 +5891,18 @@
         <v>127</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="130" spans="2:3" x14ac:dyDescent="0.25">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="130" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B130" s="2">
         <v>128</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="131" spans="2:3" x14ac:dyDescent="0.25">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="131" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B131" s="2">
         <v>129</v>
       </c>
@@ -5900,7 +5910,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="132" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B132" s="2">
         <v>130</v>
       </c>
@@ -5908,7 +5918,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="133" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B133" s="2">
         <v>131</v>
       </c>
@@ -5916,7 +5926,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="134" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B134" s="2">
         <v>132</v>
       </c>
@@ -5924,7 +5934,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="135" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B135" s="2">
         <v>133</v>
       </c>
@@ -5932,7 +5942,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="136" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B136" s="2">
         <v>134</v>
       </c>
@@ -5940,7 +5950,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="137" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B137" s="2">
         <v>135</v>
       </c>
@@ -5948,7 +5958,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="138" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B138" s="2">
         <v>136</v>
       </c>
@@ -5956,7 +5966,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="139" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B139" s="2">
         <v>137</v>
       </c>
@@ -5964,7 +5974,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="140" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B140" s="2">
         <v>138</v>
       </c>
@@ -5972,7 +5982,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="141" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B141" s="2">
         <v>139</v>
       </c>
@@ -5980,7 +5990,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="142" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B142" s="2">
         <v>140</v>
       </c>
@@ -5988,7 +5998,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="143" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B143" s="2">
         <v>141</v>
       </c>
@@ -5996,7 +6006,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="144" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B144" s="2">
         <v>142</v>
       </c>
@@ -6004,7 +6014,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="145" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B145" s="2">
         <v>143</v>
       </c>
@@ -6012,7 +6022,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="146" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B146" s="2">
         <v>144</v>
       </c>
@@ -6020,7 +6030,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="147" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B147" s="2">
         <v>145</v>
       </c>
@@ -6028,7 +6038,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="148" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B148" s="2">
         <v>146</v>
       </c>
@@ -6036,7 +6046,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="149" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B149" s="2">
         <v>147</v>
       </c>
@@ -6044,7 +6054,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="150" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B150" s="2">
         <v>148</v>
       </c>
@@ -6052,7 +6062,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="151" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B151" s="2">
         <v>149</v>
       </c>
@@ -6060,7 +6070,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="152" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B152" s="2">
         <v>150</v>
       </c>
@@ -6068,7 +6078,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="153" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B153" s="2">
         <v>151</v>
       </c>
@@ -6076,7 +6086,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="154" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B154" s="2">
         <v>152</v>
       </c>
@@ -6084,7 +6094,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="155" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B155" s="2">
         <v>153</v>
       </c>
@@ -6092,7 +6102,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="156" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B156" s="2">
         <v>154</v>
       </c>
@@ -6100,7 +6110,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="157" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B157" s="2">
         <v>155</v>
       </c>
@@ -6108,7 +6118,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="158" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B158" s="2">
         <v>156</v>
       </c>
@@ -6116,7 +6126,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="159" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B159" s="2">
         <v>157</v>
       </c>
@@ -6124,7 +6134,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="160" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B160" s="2">
         <v>158</v>
       </c>
@@ -6132,7 +6142,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B161" s="2">
         <v>159</v>
       </c>
@@ -6140,7 +6150,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B162" s="2">
         <v>160</v>
       </c>
@@ -6419,15 +6429,24 @@
       <c r="A252" s="2"/>
     </row>
   </sheetData>
+  <autoFilter ref="B2:C162" xr:uid="{6B1E055E-E4AD-4CA9-BECC-E3C88971B1F5}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="TX13_PD"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:H82"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="C63" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -8464,17 +8483,17 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B2:H82"/>
+  <autoFilter ref="B2:H82" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr filterMode="1"/>
   <dimension ref="B2:G58"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -8765,7 +8784,7 @@
     <row r="57" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="58" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <autoFilter ref="B2:E58">
+  <autoFilter ref="B2:E58" xr:uid="{00000000-0009-0000-0000-000004000000}">
     <filterColumn colId="0">
       <filters>
         <filter val="SpW G"/>
@@ -8780,11 +8799,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B2:F22"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -9153,11 +9172,4345 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B2:F20">
+  <autoFilter ref="B2:F20" xr:uid="{00000000-0009-0000-0000-000005000000}">
     <sortState ref="B3:F22">
       <sortCondition ref="E2:E20"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A829D7B-85B9-4BEE-B1F5-E8ECF0CB652C}">
+  <dimension ref="A2:H69"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="27.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="2" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="6"/>
+      <c r="B2" s="4" t="s">
+        <v>563</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>562</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>565</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="F3" s="2">
+        <f>INDEX('LVDS Board HSMC Pinout'!$B$3:$B$162,MATCH(E3,'LVDS Board HSMC Pinout'!$C$3:$C$162,0))</f>
+        <v>152</v>
+      </c>
+      <c r="G3" s="2" t="str">
+        <f>INDEX('DE4 HSMC B Pinout'!$F$4:$F$163,MATCH(F3,'DE4 HSMC B Pinout'!$B$4:$B$163,0))</f>
+        <v>PIN_W7</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="F4" s="2">
+        <f>INDEX('LVDS Board HSMC Pinout'!$B$3:$B$162,MATCH(E4,'LVDS Board HSMC Pinout'!$C$3:$C$162,0))</f>
+        <v>149</v>
+      </c>
+      <c r="G4" s="2" t="str">
+        <f>INDEX('DE4 HSMC B Pinout'!$F$4:$F$163,MATCH(F4,'DE4 HSMC B Pinout'!$B$4:$B$163,0))</f>
+        <v>PIN_V12</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="F5" s="2">
+        <f>INDEX('LVDS Board HSMC Pinout'!$B$3:$B$162,MATCH(E5,'LVDS Board HSMC Pinout'!$C$3:$C$162,0))</f>
+        <v>151</v>
+      </c>
+      <c r="G5" s="2" t="str">
+        <f>INDEX('DE4 HSMC B Pinout'!$F$4:$F$163,MATCH(F5,'DE4 HSMC B Pinout'!$B$4:$B$163,0))</f>
+        <v>PIN_V11</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="E6" s="2" t="str">
+        <f t="array" ref="E6">INDEX('LVDS Board Conectors Pinout'!$D$3:$D$82,MATCH(C6&amp;D6,'LVDS Board Conectors Pinout'!$F$3:$F$82&amp;'LVDS Board Conectors Pinout'!$G$3:$G$82,0))</f>
+        <v>RX1_PD</v>
+      </c>
+      <c r="F6" s="2">
+        <f>INDEX('LVDS Board HSMC Pinout'!$B$3:$B$162,MATCH(E6,'LVDS Board HSMC Pinout'!$C$3:$C$162,0))</f>
+        <v>48</v>
+      </c>
+      <c r="G6" s="2" t="str">
+        <f>INDEX('DE4 HSMC B Pinout'!$F$4:$F$163,MATCH(F6,'DE4 HSMC B Pinout'!$B$4:$B$163,0))</f>
+        <v>PIN_D5</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="E7" s="2" t="str">
+        <f t="array" ref="E7">INDEX('LVDS Board Conectors Pinout'!$D$3:$D$82,MATCH(C7&amp;D7,'LVDS Board Conectors Pinout'!$F$3:$F$82&amp;'LVDS Board Conectors Pinout'!$G$3:$G$82,0))</f>
+        <v>RX1_ND</v>
+      </c>
+      <c r="F7" s="2">
+        <f>INDEX('LVDS Board HSMC Pinout'!$B$3:$B$162,MATCH(E7,'LVDS Board HSMC Pinout'!$C$3:$C$162,0))</f>
+        <v>50</v>
+      </c>
+      <c r="G7" s="2" t="str">
+        <f>INDEX('DE4 HSMC B Pinout'!$F$4:$F$163,MATCH(F7,'DE4 HSMC B Pinout'!$B$4:$B$163,0))</f>
+        <v>PIN_C5</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="E8" s="2" t="str">
+        <f t="array" ref="E8">INDEX('LVDS Board Conectors Pinout'!$D$3:$D$82,MATCH(C8&amp;D8,'LVDS Board Conectors Pinout'!$F$3:$F$82&amp;'LVDS Board Conectors Pinout'!$G$3:$G$82,0))</f>
+        <v>RX2_PD</v>
+      </c>
+      <c r="F8" s="2">
+        <f>INDEX('LVDS Board HSMC Pinout'!$B$3:$B$162,MATCH(E8,'LVDS Board HSMC Pinout'!$C$3:$C$162,0))</f>
+        <v>54</v>
+      </c>
+      <c r="G8" s="2" t="str">
+        <f>INDEX('DE4 HSMC B Pinout'!$F$4:$F$163,MATCH(F8,'DE4 HSMC B Pinout'!$B$4:$B$163,0))</f>
+        <v>PIN_D10</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="E9" s="2" t="str">
+        <f t="array" ref="E9">INDEX('LVDS Board Conectors Pinout'!$D$3:$D$82,MATCH(C9&amp;D9,'LVDS Board Conectors Pinout'!$F$3:$F$82&amp;'LVDS Board Conectors Pinout'!$G$3:$G$82,0))</f>
+        <v>RX2_ND</v>
+      </c>
+      <c r="F9" s="2">
+        <f>INDEX('LVDS Board HSMC Pinout'!$B$3:$B$162,MATCH(E9,'LVDS Board HSMC Pinout'!$C$3:$C$162,0))</f>
+        <v>56</v>
+      </c>
+      <c r="G9" s="2" t="str">
+        <f>INDEX('DE4 HSMC B Pinout'!$F$4:$F$163,MATCH(F9,'DE4 HSMC B Pinout'!$B$4:$B$163,0))</f>
+        <v>PIN_C10</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="E10" s="2" t="str">
+        <f t="array" ref="E10">INDEX('LVDS Board Conectors Pinout'!$D$3:$D$82,MATCH(C10&amp;D10,'LVDS Board Conectors Pinout'!$F$3:$F$82&amp;'LVDS Board Conectors Pinout'!$G$3:$G$82,0))</f>
+        <v>TX3_PD</v>
+      </c>
+      <c r="F10" s="2">
+        <f>INDEX('LVDS Board HSMC Pinout'!$B$3:$B$162,MATCH(E10,'LVDS Board HSMC Pinout'!$C$3:$C$162,0))</f>
+        <v>59</v>
+      </c>
+      <c r="G10" s="2" t="str">
+        <f>INDEX('DE4 HSMC B Pinout'!$F$4:$F$163,MATCH(F10,'DE4 HSMC B Pinout'!$B$4:$B$163,0))</f>
+        <v>PIN_N11</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="E11" s="2" t="str">
+        <f t="array" ref="E11">INDEX('LVDS Board Conectors Pinout'!$D$3:$D$82,MATCH(C11&amp;D11,'LVDS Board Conectors Pinout'!$F$3:$F$82&amp;'LVDS Board Conectors Pinout'!$G$3:$G$82,0))</f>
+        <v>TX3_ND</v>
+      </c>
+      <c r="F11" s="2">
+        <f>INDEX('LVDS Board HSMC Pinout'!$B$3:$B$162,MATCH(E11,'LVDS Board HSMC Pinout'!$C$3:$C$162,0))</f>
+        <v>61</v>
+      </c>
+      <c r="G11" s="2" t="str">
+        <f>INDEX('DE4 HSMC B Pinout'!$F$4:$F$163,MATCH(F11,'DE4 HSMC B Pinout'!$B$4:$B$163,0))</f>
+        <v>PIN_N10</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="E12" s="2" t="str">
+        <f t="array" ref="E12">INDEX('LVDS Board Conectors Pinout'!$D$3:$D$82,MATCH(C12&amp;D12,'LVDS Board Conectors Pinout'!$F$3:$F$82&amp;'LVDS Board Conectors Pinout'!$G$3:$G$82,0))</f>
+        <v>TX4_PD</v>
+      </c>
+      <c r="F12" s="2">
+        <f>INDEX('LVDS Board HSMC Pinout'!$B$3:$B$162,MATCH(E12,'LVDS Board HSMC Pinout'!$C$3:$C$162,0))</f>
+        <v>65</v>
+      </c>
+      <c r="G12" s="2" t="str">
+        <f>INDEX('DE4 HSMC B Pinout'!$F$4:$F$163,MATCH(F12,'DE4 HSMC B Pinout'!$B$4:$B$163,0))</f>
+        <v>PIN_N12</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="E13" s="2" t="str">
+        <f t="array" ref="E13">INDEX('LVDS Board Conectors Pinout'!$D$3:$D$82,MATCH(C13&amp;D13,'LVDS Board Conectors Pinout'!$F$3:$F$82&amp;'LVDS Board Conectors Pinout'!$G$3:$G$82,0))</f>
+        <v>TX4_PD</v>
+      </c>
+      <c r="F13" s="2">
+        <f>INDEX('LVDS Board HSMC Pinout'!$B$3:$B$162,MATCH(E13,'LVDS Board HSMC Pinout'!$C$3:$C$162,0))</f>
+        <v>65</v>
+      </c>
+      <c r="G13" s="2" t="str">
+        <f>INDEX('DE4 HSMC B Pinout'!$F$4:$F$163,MATCH(F13,'DE4 HSMC B Pinout'!$B$4:$B$163,0))</f>
+        <v>PIN_N12</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="E14" s="2" t="str">
+        <f t="array" ref="E14">INDEX('LVDS Board Conectors Pinout'!$D$3:$D$82,MATCH(C14&amp;D14,'LVDS Board Conectors Pinout'!$F$3:$F$82&amp;'LVDS Board Conectors Pinout'!$G$3:$G$82,0))</f>
+        <v>RX3_PD</v>
+      </c>
+      <c r="F14" s="2">
+        <f>INDEX('LVDS Board HSMC Pinout'!$B$3:$B$162,MATCH(E14,'LVDS Board HSMC Pinout'!$C$3:$C$162,0))</f>
+        <v>60</v>
+      </c>
+      <c r="G14" s="2" t="str">
+        <f>INDEX('DE4 HSMC B Pinout'!$F$4:$F$163,MATCH(F14,'DE4 HSMC B Pinout'!$B$4:$B$163,0))</f>
+        <v>PIN_D9</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="E15" s="2" t="str">
+        <f t="array" ref="E15">INDEX('LVDS Board Conectors Pinout'!$D$3:$D$82,MATCH(C15&amp;D15,'LVDS Board Conectors Pinout'!$F$3:$F$82&amp;'LVDS Board Conectors Pinout'!$G$3:$G$82,0))</f>
+        <v>RX3_ND</v>
+      </c>
+      <c r="F15" s="2">
+        <f>INDEX('LVDS Board HSMC Pinout'!$B$3:$B$162,MATCH(E15,'LVDS Board HSMC Pinout'!$C$3:$C$162,0))</f>
+        <v>62</v>
+      </c>
+      <c r="G15" s="2" t="str">
+        <f>INDEX('DE4 HSMC B Pinout'!$F$4:$F$163,MATCH(F15,'DE4 HSMC B Pinout'!$B$4:$B$163,0))</f>
+        <v>PIN_C9</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="E16" s="2" t="str">
+        <f t="array" ref="E16">INDEX('LVDS Board Conectors Pinout'!$D$3:$D$82,MATCH(C16&amp;D16,'LVDS Board Conectors Pinout'!$F$3:$F$82&amp;'LVDS Board Conectors Pinout'!$G$3:$G$82,0))</f>
+        <v>RX4_PD</v>
+      </c>
+      <c r="F16" s="2">
+        <f>INDEX('LVDS Board HSMC Pinout'!$B$3:$B$162,MATCH(E16,'LVDS Board HSMC Pinout'!$C$3:$C$162,0))</f>
+        <v>66</v>
+      </c>
+      <c r="G16" s="2" t="str">
+        <f>INDEX('DE4 HSMC B Pinout'!$F$4:$F$163,MATCH(F16,'DE4 HSMC B Pinout'!$B$4:$B$163,0))</f>
+        <v>PIN_D8</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="E17" s="2" t="str">
+        <f t="array" ref="E17">INDEX('LVDS Board Conectors Pinout'!$D$3:$D$82,MATCH(C17&amp;D17,'LVDS Board Conectors Pinout'!$F$3:$F$82&amp;'LVDS Board Conectors Pinout'!$G$3:$G$82,0))</f>
+        <v>RX4_ND</v>
+      </c>
+      <c r="F17" s="2">
+        <f>INDEX('LVDS Board HSMC Pinout'!$B$3:$B$162,MATCH(E17,'LVDS Board HSMC Pinout'!$C$3:$C$162,0))</f>
+        <v>68</v>
+      </c>
+      <c r="G17" s="2" t="str">
+        <f>INDEX('DE4 HSMC B Pinout'!$F$4:$F$163,MATCH(F17,'DE4 HSMC B Pinout'!$B$4:$B$163,0))</f>
+        <v>PIN_C8</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="E18" s="2" t="str">
+        <f t="array" ref="E18">INDEX('LVDS Board Conectors Pinout'!$D$3:$D$82,MATCH(C18&amp;D18,'LVDS Board Conectors Pinout'!$F$3:$F$82&amp;'LVDS Board Conectors Pinout'!$G$3:$G$82,0))</f>
+        <v>TX1_PD</v>
+      </c>
+      <c r="F18" s="2">
+        <f>INDEX('LVDS Board HSMC Pinout'!$B$3:$B$162,MATCH(E18,'LVDS Board HSMC Pinout'!$C$3:$C$162,0))</f>
+        <v>47</v>
+      </c>
+      <c r="G18" s="2" t="str">
+        <f>INDEX('DE4 HSMC B Pinout'!$F$4:$F$163,MATCH(F18,'DE4 HSMC B Pinout'!$B$4:$B$163,0))</f>
+        <v>PIN_K9</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="E19" s="2" t="str">
+        <f t="array" ref="E19">INDEX('LVDS Board Conectors Pinout'!$D$3:$D$82,MATCH(C19&amp;D19,'LVDS Board Conectors Pinout'!$F$3:$F$82&amp;'LVDS Board Conectors Pinout'!$G$3:$G$82,0))</f>
+        <v>TX1_ND</v>
+      </c>
+      <c r="F19" s="2">
+        <f>INDEX('LVDS Board HSMC Pinout'!$B$3:$B$162,MATCH(E19,'LVDS Board HSMC Pinout'!$C$3:$C$162,0))</f>
+        <v>49</v>
+      </c>
+      <c r="G19" s="2" t="str">
+        <f>INDEX('DE4 HSMC B Pinout'!$F$4:$F$163,MATCH(F19,'DE4 HSMC B Pinout'!$B$4:$B$163,0))</f>
+        <v>PIN_J9</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="E20" s="2" t="str">
+        <f t="array" ref="E20">INDEX('LVDS Board Conectors Pinout'!$D$3:$D$82,MATCH(C20&amp;D20,'LVDS Board Conectors Pinout'!$F$3:$F$82&amp;'LVDS Board Conectors Pinout'!$G$3:$G$82,0))</f>
+        <v>TX2_PD</v>
+      </c>
+      <c r="F20" s="2">
+        <f>INDEX('LVDS Board HSMC Pinout'!$B$3:$B$162,MATCH(E20,'LVDS Board HSMC Pinout'!$C$3:$C$162,0))</f>
+        <v>53</v>
+      </c>
+      <c r="G20" s="2" t="str">
+        <f>INDEX('DE4 HSMC B Pinout'!$F$4:$F$163,MATCH(F20,'DE4 HSMC B Pinout'!$B$4:$B$163,0))</f>
+        <v>PIN_K10</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="E21" s="2" t="str">
+        <f t="array" ref="E21">INDEX('LVDS Board Conectors Pinout'!$D$3:$D$82,MATCH(C21&amp;D21,'LVDS Board Conectors Pinout'!$F$3:$F$82&amp;'LVDS Board Conectors Pinout'!$G$3:$G$82,0))</f>
+        <v>TX2_ND</v>
+      </c>
+      <c r="F21" s="2">
+        <f>INDEX('LVDS Board HSMC Pinout'!$B$3:$B$162,MATCH(E21,'LVDS Board HSMC Pinout'!$C$3:$C$162,0))</f>
+        <v>55</v>
+      </c>
+      <c r="G21" s="2" t="str">
+        <f>INDEX('DE4 HSMC B Pinout'!$F$4:$F$163,MATCH(F21,'DE4 HSMC B Pinout'!$B$4:$B$163,0))</f>
+        <v>PIN_J10</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="E22" s="2" t="str">
+        <f t="array" ref="E22">INDEX('LVDS Board Conectors Pinout'!$D$3:$D$82,MATCH(C22&amp;D22,'LVDS Board Conectors Pinout'!$F$3:$F$82&amp;'LVDS Board Conectors Pinout'!$G$3:$G$82,0))</f>
+        <v>RX5_PD</v>
+      </c>
+      <c r="F22" s="2">
+        <f>INDEX('LVDS Board HSMC Pinout'!$B$3:$B$162,MATCH(E22,'LVDS Board HSMC Pinout'!$C$3:$C$162,0))</f>
+        <v>72</v>
+      </c>
+      <c r="G22" s="2" t="str">
+        <f>INDEX('DE4 HSMC B Pinout'!$F$4:$F$163,MATCH(F22,'DE4 HSMC B Pinout'!$B$4:$B$163,0))</f>
+        <v>PIN_D7</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="E23" s="2" t="str">
+        <f t="array" ref="E23">INDEX('LVDS Board Conectors Pinout'!$D$3:$D$82,MATCH(C23&amp;D23,'LVDS Board Conectors Pinout'!$F$3:$F$82&amp;'LVDS Board Conectors Pinout'!$G$3:$G$82,0))</f>
+        <v>RX5_ND</v>
+      </c>
+      <c r="F23" s="2">
+        <f>INDEX('LVDS Board HSMC Pinout'!$B$3:$B$162,MATCH(E23,'LVDS Board HSMC Pinout'!$C$3:$C$162,0))</f>
+        <v>74</v>
+      </c>
+      <c r="G23" s="2" t="str">
+        <f>INDEX('DE4 HSMC B Pinout'!$F$4:$F$163,MATCH(F23,'DE4 HSMC B Pinout'!$B$4:$B$163,0))</f>
+        <v>PIN_C7</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B24" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="E24" s="2" t="str">
+        <f t="array" ref="E24">INDEX('LVDS Board Conectors Pinout'!$D$3:$D$82,MATCH(C24&amp;D24,'LVDS Board Conectors Pinout'!$F$3:$F$82&amp;'LVDS Board Conectors Pinout'!$G$3:$G$82,0))</f>
+        <v>RX6_PD</v>
+      </c>
+      <c r="F24" s="2">
+        <f>INDEX('LVDS Board HSMC Pinout'!$B$3:$B$162,MATCH(E24,'LVDS Board HSMC Pinout'!$C$3:$C$162,0))</f>
+        <v>78</v>
+      </c>
+      <c r="G24" s="2" t="str">
+        <f>INDEX('DE4 HSMC B Pinout'!$F$4:$F$163,MATCH(F24,'DE4 HSMC B Pinout'!$B$4:$B$163,0))</f>
+        <v>PIN_F10</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B25" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="E25" s="2" t="str">
+        <f t="array" ref="E25">INDEX('LVDS Board Conectors Pinout'!$D$3:$D$82,MATCH(C25&amp;D25,'LVDS Board Conectors Pinout'!$F$3:$F$82&amp;'LVDS Board Conectors Pinout'!$G$3:$G$82,0))</f>
+        <v>RX6_ND</v>
+      </c>
+      <c r="F25" s="2">
+        <f>INDEX('LVDS Board HSMC Pinout'!$B$3:$B$162,MATCH(E25,'LVDS Board HSMC Pinout'!$C$3:$C$162,0))</f>
+        <v>80</v>
+      </c>
+      <c r="G25" s="2" t="str">
+        <f>INDEX('DE4 HSMC B Pinout'!$F$4:$F$163,MATCH(F25,'DE4 HSMC B Pinout'!$B$4:$B$163,0))</f>
+        <v>PIN_E10</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B26" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="E26" s="2" t="str">
+        <f t="array" ref="E26">INDEX('LVDS Board Conectors Pinout'!$D$3:$D$82,MATCH(C26&amp;D26,'LVDS Board Conectors Pinout'!$F$3:$F$82&amp;'LVDS Board Conectors Pinout'!$G$3:$G$82,0))</f>
+        <v>TX7_PD</v>
+      </c>
+      <c r="F26" s="2">
+        <f>INDEX('LVDS Board HSMC Pinout'!$B$3:$B$162,MATCH(E26,'LVDS Board HSMC Pinout'!$C$3:$C$162,0))</f>
+        <v>83</v>
+      </c>
+      <c r="G26" s="2" t="str">
+        <f>INDEX('DE4 HSMC B Pinout'!$F$4:$F$163,MATCH(F26,'DE4 HSMC B Pinout'!$B$4:$B$163,0))</f>
+        <v>PIN_R13</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B27" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="E27" s="2" t="str">
+        <f t="array" ref="E27">INDEX('LVDS Board Conectors Pinout'!$D$3:$D$82,MATCH(C27&amp;D27,'LVDS Board Conectors Pinout'!$F$3:$F$82&amp;'LVDS Board Conectors Pinout'!$G$3:$G$82,0))</f>
+        <v>TX7_ND</v>
+      </c>
+      <c r="F27" s="2">
+        <f>INDEX('LVDS Board HSMC Pinout'!$B$3:$B$162,MATCH(E27,'LVDS Board HSMC Pinout'!$C$3:$C$162,0))</f>
+        <v>85</v>
+      </c>
+      <c r="G27" s="2" t="str">
+        <f>INDEX('DE4 HSMC B Pinout'!$F$4:$F$163,MATCH(F27,'DE4 HSMC B Pinout'!$B$4:$B$163,0))</f>
+        <v>PIN_P13</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B28" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="E28" s="2" t="str">
+        <f t="array" ref="E28">INDEX('LVDS Board Conectors Pinout'!$D$3:$D$82,MATCH(C28&amp;D28,'LVDS Board Conectors Pinout'!$F$3:$F$82&amp;'LVDS Board Conectors Pinout'!$G$3:$G$82,0))</f>
+        <v>TX8_PD</v>
+      </c>
+      <c r="F28" s="2">
+        <f>INDEX('LVDS Board HSMC Pinout'!$B$3:$B$162,MATCH(E28,'LVDS Board HSMC Pinout'!$C$3:$C$162,0))</f>
+        <v>89</v>
+      </c>
+      <c r="G28" s="2" t="str">
+        <f>INDEX('DE4 HSMC B Pinout'!$F$4:$F$163,MATCH(F28,'DE4 HSMC B Pinout'!$B$4:$B$163,0))</f>
+        <v>PIN_H7</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B29" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="E29" s="2" t="str">
+        <f t="array" ref="E29">INDEX('LVDS Board Conectors Pinout'!$D$3:$D$82,MATCH(C29&amp;D29,'LVDS Board Conectors Pinout'!$F$3:$F$82&amp;'LVDS Board Conectors Pinout'!$G$3:$G$82,0))</f>
+        <v>TX8_ND</v>
+      </c>
+      <c r="F29" s="2">
+        <f>INDEX('LVDS Board HSMC Pinout'!$B$3:$B$162,MATCH(E29,'LVDS Board HSMC Pinout'!$C$3:$C$162,0))</f>
+        <v>91</v>
+      </c>
+      <c r="G29" s="2" t="str">
+        <f>INDEX('DE4 HSMC B Pinout'!$F$4:$F$163,MATCH(F29,'DE4 HSMC B Pinout'!$B$4:$B$163,0))</f>
+        <v>PIN_G7</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B30" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="E30" s="2" t="str">
+        <f t="array" ref="E30">INDEX('LVDS Board Conectors Pinout'!$D$3:$D$82,MATCH(C30&amp;D30,'LVDS Board Conectors Pinout'!$F$3:$F$82&amp;'LVDS Board Conectors Pinout'!$G$3:$G$82,0))</f>
+        <v>RX7_PD</v>
+      </c>
+      <c r="F30" s="2">
+        <f>INDEX('LVDS Board HSMC Pinout'!$B$3:$B$162,MATCH(E30,'LVDS Board HSMC Pinout'!$C$3:$C$162,0))</f>
+        <v>84</v>
+      </c>
+      <c r="G30" s="2" t="str">
+        <f>INDEX('DE4 HSMC B Pinout'!$F$4:$F$163,MATCH(F30,'DE4 HSMC B Pinout'!$B$4:$B$163,0))</f>
+        <v>PIN_G5</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B31" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="E31" s="2" t="str">
+        <f t="array" ref="E31">INDEX('LVDS Board Conectors Pinout'!$D$3:$D$82,MATCH(C31&amp;D31,'LVDS Board Conectors Pinout'!$F$3:$F$82&amp;'LVDS Board Conectors Pinout'!$G$3:$G$82,0))</f>
+        <v>RX7_ND</v>
+      </c>
+      <c r="F31" s="2">
+        <f>INDEX('LVDS Board HSMC Pinout'!$B$3:$B$162,MATCH(E31,'LVDS Board HSMC Pinout'!$C$3:$C$162,0))</f>
+        <v>86</v>
+      </c>
+      <c r="G31" s="2" t="str">
+        <f>INDEX('DE4 HSMC B Pinout'!$F$4:$F$163,MATCH(F31,'DE4 HSMC B Pinout'!$B$4:$B$163,0))</f>
+        <v>PIN_F5</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B32" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="E32" s="2" t="str">
+        <f t="array" ref="E32">INDEX('LVDS Board Conectors Pinout'!$D$3:$D$82,MATCH(C32&amp;D32,'LVDS Board Conectors Pinout'!$F$3:$F$82&amp;'LVDS Board Conectors Pinout'!$G$3:$G$82,0))</f>
+        <v>RX8_PD</v>
+      </c>
+      <c r="F32" s="2">
+        <f>INDEX('LVDS Board HSMC Pinout'!$B$3:$B$162,MATCH(E32,'LVDS Board HSMC Pinout'!$C$3:$C$162,0))</f>
+        <v>90</v>
+      </c>
+      <c r="G32" s="2" t="str">
+        <f>INDEX('DE4 HSMC B Pinout'!$F$4:$F$163,MATCH(F32,'DE4 HSMC B Pinout'!$B$4:$B$163,0))</f>
+        <v>PIN_G6</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B33" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="E33" s="2" t="str">
+        <f t="array" ref="E33">INDEX('LVDS Board Conectors Pinout'!$D$3:$D$82,MATCH(C33&amp;D33,'LVDS Board Conectors Pinout'!$F$3:$F$82&amp;'LVDS Board Conectors Pinout'!$G$3:$G$82,0))</f>
+        <v>RX8_ND</v>
+      </c>
+      <c r="F33" s="2">
+        <f>INDEX('LVDS Board HSMC Pinout'!$B$3:$B$162,MATCH(E33,'LVDS Board HSMC Pinout'!$C$3:$C$162,0))</f>
+        <v>92</v>
+      </c>
+      <c r="G33" s="2" t="str">
+        <f>INDEX('DE4 HSMC B Pinout'!$F$4:$F$163,MATCH(F33,'DE4 HSMC B Pinout'!$B$4:$B$163,0))</f>
+        <v>PIN_F6</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B34" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="E34" s="2" t="str">
+        <f t="array" ref="E34">INDEX('LVDS Board Conectors Pinout'!$D$3:$D$82,MATCH(C34&amp;D34,'LVDS Board Conectors Pinout'!$F$3:$F$82&amp;'LVDS Board Conectors Pinout'!$G$3:$G$82,0))</f>
+        <v>TX5_PD</v>
+      </c>
+      <c r="F34" s="2">
+        <f>INDEX('LVDS Board HSMC Pinout'!$B$3:$B$162,MATCH(E34,'LVDS Board HSMC Pinout'!$C$3:$C$162,0))</f>
+        <v>71</v>
+      </c>
+      <c r="G34" s="2" t="str">
+        <f>INDEX('DE4 HSMC B Pinout'!$F$4:$F$163,MATCH(F34,'DE4 HSMC B Pinout'!$B$4:$B$163,0))</f>
+        <v>PIN_R12</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B35" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="E35" s="2" t="str">
+        <f t="array" ref="E35">INDEX('LVDS Board Conectors Pinout'!$D$3:$D$82,MATCH(C35&amp;D35,'LVDS Board Conectors Pinout'!$F$3:$F$82&amp;'LVDS Board Conectors Pinout'!$G$3:$G$82,0))</f>
+        <v>TX5_ND</v>
+      </c>
+      <c r="F35" s="2">
+        <f>INDEX('LVDS Board HSMC Pinout'!$B$3:$B$162,MATCH(E35,'LVDS Board HSMC Pinout'!$C$3:$C$162,0))</f>
+        <v>73</v>
+      </c>
+      <c r="G35" s="2" t="str">
+        <f>INDEX('DE4 HSMC B Pinout'!$F$4:$F$163,MATCH(F35,'DE4 HSMC B Pinout'!$B$4:$B$163,0))</f>
+        <v>PIN_R11</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B36" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="E36" s="2" t="str">
+        <f t="array" ref="E36">INDEX('LVDS Board Conectors Pinout'!$D$3:$D$82,MATCH(C36&amp;D36,'LVDS Board Conectors Pinout'!$F$3:$F$82&amp;'LVDS Board Conectors Pinout'!$G$3:$G$82,0))</f>
+        <v>TX6_PD</v>
+      </c>
+      <c r="F36" s="2">
+        <f>INDEX('LVDS Board HSMC Pinout'!$B$3:$B$162,MATCH(E36,'LVDS Board HSMC Pinout'!$C$3:$C$162,0))</f>
+        <v>77</v>
+      </c>
+      <c r="G36" s="2" t="str">
+        <f>INDEX('DE4 HSMC B Pinout'!$F$4:$F$163,MATCH(F36,'DE4 HSMC B Pinout'!$B$4:$B$163,0))</f>
+        <v>PIN_T13</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B37" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="E37" s="2" t="str">
+        <f t="array" ref="E37">INDEX('LVDS Board Conectors Pinout'!$D$3:$D$82,MATCH(C37&amp;D37,'LVDS Board Conectors Pinout'!$F$3:$F$82&amp;'LVDS Board Conectors Pinout'!$G$3:$G$82,0))</f>
+        <v>TX6_ND</v>
+      </c>
+      <c r="F37" s="2">
+        <f>INDEX('LVDS Board HSMC Pinout'!$B$3:$B$162,MATCH(E37,'LVDS Board HSMC Pinout'!$C$3:$C$162,0))</f>
+        <v>79</v>
+      </c>
+      <c r="G37" s="2" t="str">
+        <f>INDEX('DE4 HSMC B Pinout'!$F$4:$F$163,MATCH(F37,'DE4 HSMC B Pinout'!$B$4:$B$163,0))</f>
+        <v>PIN_T12</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B38" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="E38" s="2" t="str">
+        <f t="array" ref="E38">INDEX('LVDS Board Conectors Pinout'!$D$3:$D$82,MATCH(C38&amp;D38,'LVDS Board Conectors Pinout'!$F$3:$F$82&amp;'LVDS Board Conectors Pinout'!$G$3:$G$82,0))</f>
+        <v>RX9_PD</v>
+      </c>
+      <c r="F38" s="2">
+        <f>INDEX('LVDS Board HSMC Pinout'!$B$3:$B$162,MATCH(E38,'LVDS Board HSMC Pinout'!$C$3:$C$162,0))</f>
+        <v>102</v>
+      </c>
+      <c r="G38" s="2" t="str">
+        <f>INDEX('DE4 HSMC B Pinout'!$F$4:$F$163,MATCH(F38,'DE4 HSMC B Pinout'!$B$4:$B$163,0))</f>
+        <v>PIN_F7</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B39" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="E39" s="2" t="str">
+        <f t="array" ref="E39">INDEX('LVDS Board Conectors Pinout'!$D$3:$D$82,MATCH(C39&amp;D39,'LVDS Board Conectors Pinout'!$F$3:$F$82&amp;'LVDS Board Conectors Pinout'!$G$3:$G$82,0))</f>
+        <v>RX9_ND</v>
+      </c>
+      <c r="F39" s="2">
+        <f>INDEX('LVDS Board HSMC Pinout'!$B$3:$B$162,MATCH(E39,'LVDS Board HSMC Pinout'!$C$3:$C$162,0))</f>
+        <v>104</v>
+      </c>
+      <c r="G39" s="2" t="str">
+        <f>INDEX('DE4 HSMC B Pinout'!$F$4:$F$163,MATCH(F39,'DE4 HSMC B Pinout'!$B$4:$B$163,0))</f>
+        <v>PIN_E7</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B40" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="E40" s="2" t="str">
+        <f t="array" ref="E40">INDEX('LVDS Board Conectors Pinout'!$D$3:$D$82,MATCH(C40&amp;D40,'LVDS Board Conectors Pinout'!$F$3:$F$82&amp;'LVDS Board Conectors Pinout'!$G$3:$G$82,0))</f>
+        <v>RX10_PD</v>
+      </c>
+      <c r="F40" s="2">
+        <f>INDEX('LVDS Board HSMC Pinout'!$B$3:$B$162,MATCH(E40,'LVDS Board HSMC Pinout'!$C$3:$C$162,0))</f>
+        <v>108</v>
+      </c>
+      <c r="G40" s="2" t="str">
+        <f>INDEX('DE4 HSMC B Pinout'!$F$4:$F$163,MATCH(F40,'DE4 HSMC B Pinout'!$B$4:$B$163,0))</f>
+        <v>PIN_G8</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B41" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="E41" s="2" t="str">
+        <f t="array" ref="E41">INDEX('LVDS Board Conectors Pinout'!$D$3:$D$82,MATCH(C41&amp;D41,'LVDS Board Conectors Pinout'!$F$3:$F$82&amp;'LVDS Board Conectors Pinout'!$G$3:$G$82,0))</f>
+        <v>RX10_ND</v>
+      </c>
+      <c r="F41" s="2">
+        <f>INDEX('LVDS Board HSMC Pinout'!$B$3:$B$162,MATCH(E41,'LVDS Board HSMC Pinout'!$C$3:$C$162,0))</f>
+        <v>110</v>
+      </c>
+      <c r="G41" s="2" t="str">
+        <f>INDEX('DE4 HSMC B Pinout'!$F$4:$F$163,MATCH(F41,'DE4 HSMC B Pinout'!$B$4:$B$163,0))</f>
+        <v>PIN_F8</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B42" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="E42" s="2" t="str">
+        <f t="array" ref="E42">INDEX('LVDS Board Conectors Pinout'!$D$3:$D$82,MATCH(C42&amp;D42,'LVDS Board Conectors Pinout'!$F$3:$F$82&amp;'LVDS Board Conectors Pinout'!$G$3:$G$82,0))</f>
+        <v>TX11_PD</v>
+      </c>
+      <c r="F42" s="2">
+        <f>INDEX('LVDS Board HSMC Pinout'!$B$3:$B$162,MATCH(E42,'LVDS Board HSMC Pinout'!$C$3:$C$162,0))</f>
+        <v>113</v>
+      </c>
+      <c r="G42" s="2" t="str">
+        <f>INDEX('DE4 HSMC B Pinout'!$F$4:$F$163,MATCH(F42,'DE4 HSMC B Pinout'!$B$4:$B$163,0))</f>
+        <v>PIN_M11</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B43" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="E43" s="2" t="str">
+        <f t="array" ref="E43">INDEX('LVDS Board Conectors Pinout'!$D$3:$D$82,MATCH(C43&amp;D43,'LVDS Board Conectors Pinout'!$F$3:$F$82&amp;'LVDS Board Conectors Pinout'!$G$3:$G$82,0))</f>
+        <v>TX11_ND</v>
+      </c>
+      <c r="F43" s="2">
+        <f>INDEX('LVDS Board HSMC Pinout'!$B$3:$B$162,MATCH(E43,'LVDS Board HSMC Pinout'!$C$3:$C$162,0))</f>
+        <v>115</v>
+      </c>
+      <c r="G43" s="2" t="str">
+        <f>INDEX('DE4 HSMC B Pinout'!$F$4:$F$163,MATCH(F43,'DE4 HSMC B Pinout'!$B$4:$B$163,0))</f>
+        <v>PIN_L11</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B44" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="E44" s="2" t="str">
+        <f t="array" ref="E44">INDEX('LVDS Board Conectors Pinout'!$D$3:$D$82,MATCH(C44&amp;D44,'LVDS Board Conectors Pinout'!$F$3:$F$82&amp;'LVDS Board Conectors Pinout'!$G$3:$G$82,0))</f>
+        <v>TX12_PD</v>
+      </c>
+      <c r="F44" s="2">
+        <f>INDEX('LVDS Board HSMC Pinout'!$B$3:$B$162,MATCH(E44,'LVDS Board HSMC Pinout'!$C$3:$C$162,0))</f>
+        <v>119</v>
+      </c>
+      <c r="G44" s="2" t="str">
+        <f>INDEX('DE4 HSMC B Pinout'!$F$4:$F$163,MATCH(F44,'DE4 HSMC B Pinout'!$B$4:$B$163,0))</f>
+        <v>PIN_N9</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B45" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="E45" s="2" t="str">
+        <f t="array" ref="E45">INDEX('LVDS Board Conectors Pinout'!$D$3:$D$82,MATCH(C45&amp;D45,'LVDS Board Conectors Pinout'!$F$3:$F$82&amp;'LVDS Board Conectors Pinout'!$G$3:$G$82,0))</f>
+        <v>TX12_ND</v>
+      </c>
+      <c r="F45" s="2">
+        <f>INDEX('LVDS Board HSMC Pinout'!$B$3:$B$162,MATCH(E45,'LVDS Board HSMC Pinout'!$C$3:$C$162,0))</f>
+        <v>121</v>
+      </c>
+      <c r="G45" s="2" t="str">
+        <f>INDEX('DE4 HSMC B Pinout'!$F$4:$F$163,MATCH(F45,'DE4 HSMC B Pinout'!$B$4:$B$163,0))</f>
+        <v>PIN_P8</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B46" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="E46" s="2" t="str">
+        <f t="array" ref="E46">INDEX('LVDS Board Conectors Pinout'!$D$3:$D$82,MATCH(C46&amp;D46,'LVDS Board Conectors Pinout'!$F$3:$F$82&amp;'LVDS Board Conectors Pinout'!$G$3:$G$82,0))</f>
+        <v>RX11_PD</v>
+      </c>
+      <c r="F46" s="2">
+        <f>INDEX('LVDS Board HSMC Pinout'!$B$3:$B$162,MATCH(E46,'LVDS Board HSMC Pinout'!$C$3:$C$162,0))</f>
+        <v>114</v>
+      </c>
+      <c r="G46" s="2" t="str">
+        <f>INDEX('DE4 HSMC B Pinout'!$F$4:$F$163,MATCH(F46,'DE4 HSMC B Pinout'!$B$4:$B$163,0))</f>
+        <v>PIN_G9</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B47" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="E47" s="2" t="str">
+        <f t="array" ref="E47">INDEX('LVDS Board Conectors Pinout'!$D$3:$D$82,MATCH(C47&amp;D47,'LVDS Board Conectors Pinout'!$F$3:$F$82&amp;'LVDS Board Conectors Pinout'!$G$3:$G$82,0))</f>
+        <v>RX11_ND</v>
+      </c>
+      <c r="F47" s="2">
+        <f>INDEX('LVDS Board HSMC Pinout'!$B$3:$B$162,MATCH(E47,'LVDS Board HSMC Pinout'!$C$3:$C$162,0))</f>
+        <v>116</v>
+      </c>
+      <c r="G47" s="2" t="str">
+        <f>INDEX('DE4 HSMC B Pinout'!$F$4:$F$163,MATCH(F47,'DE4 HSMC B Pinout'!$B$4:$B$163,0))</f>
+        <v>PIN_F9</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B48" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="E48" s="2" t="str">
+        <f t="array" ref="E48">INDEX('LVDS Board Conectors Pinout'!$D$3:$D$82,MATCH(C48&amp;D48,'LVDS Board Conectors Pinout'!$F$3:$F$82&amp;'LVDS Board Conectors Pinout'!$G$3:$G$82,0))</f>
+        <v>RX12_PD</v>
+      </c>
+      <c r="F48" s="2">
+        <f>INDEX('LVDS Board HSMC Pinout'!$B$3:$B$162,MATCH(E48,'LVDS Board HSMC Pinout'!$C$3:$C$162,0))</f>
+        <v>120</v>
+      </c>
+      <c r="G48" s="2" t="str">
+        <f>INDEX('DE4 HSMC B Pinout'!$F$4:$F$163,MATCH(F48,'DE4 HSMC B Pinout'!$B$4:$B$163,0))</f>
+        <v>PIN_N6</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B49" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="E49" s="2" t="str">
+        <f t="array" ref="E49">INDEX('LVDS Board Conectors Pinout'!$D$3:$D$82,MATCH(C49&amp;D49,'LVDS Board Conectors Pinout'!$F$3:$F$82&amp;'LVDS Board Conectors Pinout'!$G$3:$G$82,0))</f>
+        <v>RX12_ND</v>
+      </c>
+      <c r="F49" s="2">
+        <f>INDEX('LVDS Board HSMC Pinout'!$B$3:$B$162,MATCH(E49,'LVDS Board HSMC Pinout'!$C$3:$C$162,0))</f>
+        <v>122</v>
+      </c>
+      <c r="G49" s="2" t="str">
+        <f>INDEX('DE4 HSMC B Pinout'!$F$4:$F$163,MATCH(F49,'DE4 HSMC B Pinout'!$B$4:$B$163,0))</f>
+        <v>PIN_N5</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B50" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="E50" s="2" t="str">
+        <f t="array" ref="E50">INDEX('LVDS Board Conectors Pinout'!$D$3:$D$82,MATCH(C50&amp;D50,'LVDS Board Conectors Pinout'!$F$3:$F$82&amp;'LVDS Board Conectors Pinout'!$G$3:$G$82,0))</f>
+        <v>TX9_PD</v>
+      </c>
+      <c r="F50" s="2">
+        <f>INDEX('LVDS Board HSMC Pinout'!$B$3:$B$162,MATCH(E50,'LVDS Board HSMC Pinout'!$C$3:$C$162,0))</f>
+        <v>101</v>
+      </c>
+      <c r="G50" s="2" t="str">
+        <f>INDEX('DE4 HSMC B Pinout'!$F$4:$F$163,MATCH(F50,'DE4 HSMC B Pinout'!$B$4:$B$163,0))</f>
+        <v>PIN_M10</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B51" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="E51" s="2" t="str">
+        <f t="array" ref="E51">INDEX('LVDS Board Conectors Pinout'!$D$3:$D$82,MATCH(C51&amp;D51,'LVDS Board Conectors Pinout'!$F$3:$F$82&amp;'LVDS Board Conectors Pinout'!$G$3:$G$82,0))</f>
+        <v>TX9_ND</v>
+      </c>
+      <c r="F51" s="2">
+        <f>INDEX('LVDS Board HSMC Pinout'!$B$3:$B$162,MATCH(E51,'LVDS Board HSMC Pinout'!$C$3:$C$162,0))</f>
+        <v>103</v>
+      </c>
+      <c r="G51" s="2" t="str">
+        <f>INDEX('DE4 HSMC B Pinout'!$F$4:$F$163,MATCH(F51,'DE4 HSMC B Pinout'!$B$4:$B$163,0))</f>
+        <v>PIN_L10</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B52" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="E52" s="2" t="str">
+        <f t="array" ref="E52">INDEX('LVDS Board Conectors Pinout'!$D$3:$D$82,MATCH(C52&amp;D52,'LVDS Board Conectors Pinout'!$F$3:$F$82&amp;'LVDS Board Conectors Pinout'!$G$3:$G$82,0))</f>
+        <v>TX10_PD</v>
+      </c>
+      <c r="F52" s="2">
+        <f>INDEX('LVDS Board HSMC Pinout'!$B$3:$B$162,MATCH(E52,'LVDS Board HSMC Pinout'!$C$3:$C$162,0))</f>
+        <v>107</v>
+      </c>
+      <c r="G52" s="2" t="str">
+        <f>INDEX('DE4 HSMC B Pinout'!$F$4:$F$163,MATCH(F52,'DE4 HSMC B Pinout'!$B$4:$B$163,0))</f>
+        <v>PIN_M8</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B53" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="E53" s="2" t="str">
+        <f t="array" ref="E53">INDEX('LVDS Board Conectors Pinout'!$D$3:$D$82,MATCH(C53&amp;D53,'LVDS Board Conectors Pinout'!$F$3:$F$82&amp;'LVDS Board Conectors Pinout'!$G$3:$G$82,0))</f>
+        <v>TX10_ND</v>
+      </c>
+      <c r="F53" s="2">
+        <f>INDEX('LVDS Board HSMC Pinout'!$B$3:$B$162,MATCH(E53,'LVDS Board HSMC Pinout'!$C$3:$C$162,0))</f>
+        <v>109</v>
+      </c>
+      <c r="G53" s="2" t="str">
+        <f>INDEX('DE4 HSMC B Pinout'!$F$4:$F$163,MATCH(F53,'DE4 HSMC B Pinout'!$B$4:$B$163,0))</f>
+        <v>PIN_M7</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B54" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="E54" s="2" t="str">
+        <f t="array" ref="E54">INDEX('LVDS Board Conectors Pinout'!$D$3:$D$82,MATCH(C54&amp;D54,'LVDS Board Conectors Pinout'!$F$3:$F$82&amp;'LVDS Board Conectors Pinout'!$G$3:$G$82,0))</f>
+        <v>RX13_PD</v>
+      </c>
+      <c r="F54" s="2">
+        <f>INDEX('LVDS Board HSMC Pinout'!$B$3:$B$162,MATCH(E54,'LVDS Board HSMC Pinout'!$C$3:$C$162,0))</f>
+        <v>126</v>
+      </c>
+      <c r="G54" s="2" t="str">
+        <f>INDEX('DE4 HSMC B Pinout'!$F$4:$F$163,MATCH(F54,'DE4 HSMC B Pinout'!$B$4:$B$163,0))</f>
+        <v>PIN_M6</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B55" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="E55" s="2" t="str">
+        <f t="array" ref="E55">INDEX('LVDS Board Conectors Pinout'!$D$3:$D$82,MATCH(C55&amp;D55,'LVDS Board Conectors Pinout'!$F$3:$F$82&amp;'LVDS Board Conectors Pinout'!$G$3:$G$82,0))</f>
+        <v>RX13_ND</v>
+      </c>
+      <c r="F55" s="2">
+        <f>INDEX('LVDS Board HSMC Pinout'!$B$3:$B$162,MATCH(E55,'LVDS Board HSMC Pinout'!$C$3:$C$162,0))</f>
+        <v>128</v>
+      </c>
+      <c r="G55" s="2" t="str">
+        <f>INDEX('DE4 HSMC B Pinout'!$F$4:$F$163,MATCH(F55,'DE4 HSMC B Pinout'!$B$4:$B$163,0))</f>
+        <v>PIN_L5</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B56" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="E56" s="2" t="str">
+        <f t="array" ref="E56">INDEX('LVDS Board Conectors Pinout'!$D$3:$D$82,MATCH(C56&amp;D56,'LVDS Board Conectors Pinout'!$F$3:$F$82&amp;'LVDS Board Conectors Pinout'!$G$3:$G$82,0))</f>
+        <v>RX14_PD</v>
+      </c>
+      <c r="F56" s="2">
+        <f>INDEX('LVDS Board HSMC Pinout'!$B$3:$B$162,MATCH(E56,'LVDS Board HSMC Pinout'!$C$3:$C$162,0))</f>
+        <v>132</v>
+      </c>
+      <c r="G56" s="2" t="str">
+        <f>INDEX('DE4 HSMC B Pinout'!$F$4:$F$163,MATCH(F56,'DE4 HSMC B Pinout'!$B$4:$B$163,0))</f>
+        <v>PIN_R6</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B57" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="E57" s="2" t="str">
+        <f t="array" ref="E57">INDEX('LVDS Board Conectors Pinout'!$D$3:$D$82,MATCH(C57&amp;D57,'LVDS Board Conectors Pinout'!$F$3:$F$82&amp;'LVDS Board Conectors Pinout'!$G$3:$G$82,0))</f>
+        <v>RX14_ND</v>
+      </c>
+      <c r="F57" s="2">
+        <f>INDEX('LVDS Board HSMC Pinout'!$B$3:$B$162,MATCH(E57,'LVDS Board HSMC Pinout'!$C$3:$C$162,0))</f>
+        <v>134</v>
+      </c>
+      <c r="G57" s="2" t="str">
+        <f>INDEX('DE4 HSMC B Pinout'!$F$4:$F$163,MATCH(F57,'DE4 HSMC B Pinout'!$B$4:$B$163,0))</f>
+        <v>PIN_R5</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B58" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="E58" s="2" t="str">
+        <f t="array" ref="E58">INDEX('LVDS Board Conectors Pinout'!$D$3:$D$82,MATCH(C58&amp;D58,'LVDS Board Conectors Pinout'!$F$3:$F$82&amp;'LVDS Board Conectors Pinout'!$G$3:$G$82,0))</f>
+        <v>TX15_PD</v>
+      </c>
+      <c r="F58" s="2">
+        <f>INDEX('LVDS Board HSMC Pinout'!$B$3:$B$162,MATCH(E58,'LVDS Board HSMC Pinout'!$C$3:$C$162,0))</f>
+        <v>137</v>
+      </c>
+      <c r="G58" s="2" t="str">
+        <f>INDEX('DE4 HSMC B Pinout'!$F$4:$F$163,MATCH(F58,'DE4 HSMC B Pinout'!$B$4:$B$163,0))</f>
+        <v>PIN_V10</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B59" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="E59" s="2" t="str">
+        <f t="array" ref="E59">INDEX('LVDS Board Conectors Pinout'!$D$3:$D$82,MATCH(C59&amp;D59,'LVDS Board Conectors Pinout'!$F$3:$F$82&amp;'LVDS Board Conectors Pinout'!$G$3:$G$82,0))</f>
+        <v>TX15_ND</v>
+      </c>
+      <c r="F59" s="2">
+        <f>INDEX('LVDS Board HSMC Pinout'!$B$3:$B$162,MATCH(E59,'LVDS Board HSMC Pinout'!$C$3:$C$162,0))</f>
+        <v>139</v>
+      </c>
+      <c r="G59" s="2" t="str">
+        <f>INDEX('DE4 HSMC B Pinout'!$F$4:$F$163,MATCH(F59,'DE4 HSMC B Pinout'!$B$4:$B$163,0))</f>
+        <v>PIN_V9</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B60" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="E60" s="2" t="str">
+        <f t="array" ref="E60">INDEX('LVDS Board Conectors Pinout'!$D$3:$D$82,MATCH(C60&amp;D60,'LVDS Board Conectors Pinout'!$F$3:$F$82&amp;'LVDS Board Conectors Pinout'!$G$3:$G$82,0))</f>
+        <v>TX16_PD</v>
+      </c>
+      <c r="F60" s="2">
+        <f>INDEX('LVDS Board HSMC Pinout'!$B$3:$B$162,MATCH(E60,'LVDS Board HSMC Pinout'!$C$3:$C$162,0))</f>
+        <v>143</v>
+      </c>
+      <c r="G60" s="2" t="str">
+        <f>INDEX('DE4 HSMC B Pinout'!$F$4:$F$163,MATCH(F60,'DE4 HSMC B Pinout'!$B$4:$B$163,0))</f>
+        <v>PIN_T10</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B61" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="E61" s="2" t="str">
+        <f t="array" ref="E61">INDEX('LVDS Board Conectors Pinout'!$D$3:$D$82,MATCH(C61&amp;D61,'LVDS Board Conectors Pinout'!$F$3:$F$82&amp;'LVDS Board Conectors Pinout'!$G$3:$G$82,0))</f>
+        <v>TX16_ND</v>
+      </c>
+      <c r="F61" s="2">
+        <f>INDEX('LVDS Board HSMC Pinout'!$B$3:$B$162,MATCH(E61,'LVDS Board HSMC Pinout'!$C$3:$C$162,0))</f>
+        <v>145</v>
+      </c>
+      <c r="G61" s="2" t="str">
+        <f>INDEX('DE4 HSMC B Pinout'!$F$4:$F$163,MATCH(F61,'DE4 HSMC B Pinout'!$B$4:$B$163,0))</f>
+        <v>PIN_R10</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B62" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="E62" s="2" t="str">
+        <f t="array" ref="E62">INDEX('LVDS Board Conectors Pinout'!$D$3:$D$82,MATCH(C62&amp;D62,'LVDS Board Conectors Pinout'!$F$3:$F$82&amp;'LVDS Board Conectors Pinout'!$G$3:$G$82,0))</f>
+        <v>RX15_PD</v>
+      </c>
+      <c r="F62" s="2">
+        <f>INDEX('LVDS Board HSMC Pinout'!$B$3:$B$162,MATCH(E62,'LVDS Board HSMC Pinout'!$C$3:$C$162,0))</f>
+        <v>138</v>
+      </c>
+      <c r="G62" s="2" t="str">
+        <f>INDEX('DE4 HSMC B Pinout'!$F$4:$F$163,MATCH(F62,'DE4 HSMC B Pinout'!$B$4:$B$163,0))</f>
+        <v>PIN_R7</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B63" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="E63" s="2" t="str">
+        <f t="array" ref="E63">INDEX('LVDS Board Conectors Pinout'!$D$3:$D$82,MATCH(C63&amp;D63,'LVDS Board Conectors Pinout'!$F$3:$F$82&amp;'LVDS Board Conectors Pinout'!$G$3:$G$82,0))</f>
+        <v>RX15_ND</v>
+      </c>
+      <c r="F63" s="2">
+        <f>INDEX('LVDS Board HSMC Pinout'!$B$3:$B$162,MATCH(E63,'LVDS Board HSMC Pinout'!$C$3:$C$162,0))</f>
+        <v>140</v>
+      </c>
+      <c r="G63" s="2" t="str">
+        <f>INDEX('DE4 HSMC B Pinout'!$F$4:$F$163,MATCH(F63,'DE4 HSMC B Pinout'!$B$4:$B$163,0))</f>
+        <v>PIN_P6</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B64" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="E64" s="2" t="str">
+        <f t="array" ref="E64">INDEX('LVDS Board Conectors Pinout'!$D$3:$D$82,MATCH(C64&amp;D64,'LVDS Board Conectors Pinout'!$F$3:$F$82&amp;'LVDS Board Conectors Pinout'!$G$3:$G$82,0))</f>
+        <v>RX16_PD</v>
+      </c>
+      <c r="F64" s="2">
+        <f>INDEX('LVDS Board HSMC Pinout'!$B$3:$B$162,MATCH(E64,'LVDS Board HSMC Pinout'!$C$3:$C$162,0))</f>
+        <v>144</v>
+      </c>
+      <c r="G64" s="2" t="str">
+        <f>INDEX('DE4 HSMC B Pinout'!$F$4:$F$163,MATCH(F64,'DE4 HSMC B Pinout'!$B$4:$B$163,0))</f>
+        <v>PIN_V6</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B65" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="E65" s="2" t="str">
+        <f t="array" ref="E65">INDEX('LVDS Board Conectors Pinout'!$D$3:$D$82,MATCH(C65&amp;D65,'LVDS Board Conectors Pinout'!$F$3:$F$82&amp;'LVDS Board Conectors Pinout'!$G$3:$G$82,0))</f>
+        <v>RX16_ND</v>
+      </c>
+      <c r="F65" s="2">
+        <f>INDEX('LVDS Board HSMC Pinout'!$B$3:$B$162,MATCH(E65,'LVDS Board HSMC Pinout'!$C$3:$C$162,0))</f>
+        <v>146</v>
+      </c>
+      <c r="G65" s="2" t="str">
+        <f>INDEX('DE4 HSMC B Pinout'!$F$4:$F$163,MATCH(F65,'DE4 HSMC B Pinout'!$B$4:$B$163,0))</f>
+        <v>PIN_U5</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B66" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="E66" s="2" t="str">
+        <f t="array" ref="E66">INDEX('LVDS Board Conectors Pinout'!$D$3:$D$82,MATCH(C66&amp;D66,'LVDS Board Conectors Pinout'!$F$3:$F$82&amp;'LVDS Board Conectors Pinout'!$G$3:$G$82,0))</f>
+        <v>TX13_PD</v>
+      </c>
+      <c r="F66" s="2">
+        <f>INDEX('LVDS Board HSMC Pinout'!$B$3:$B$162,MATCH(E66,'LVDS Board HSMC Pinout'!$C$3:$C$162,0))</f>
+        <v>125</v>
+      </c>
+      <c r="G66" s="2" t="str">
+        <f>INDEX('DE4 HSMC B Pinout'!$F$4:$F$163,MATCH(F66,'DE4 HSMC B Pinout'!$B$4:$B$163,0))</f>
+        <v>PIN_R9</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B67" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="E67" s="2" t="str">
+        <f t="array" ref="E67">INDEX('LVDS Board Conectors Pinout'!$D$3:$D$82,MATCH(C67&amp;D67,'LVDS Board Conectors Pinout'!$F$3:$F$82&amp;'LVDS Board Conectors Pinout'!$G$3:$G$82,0))</f>
+        <v>TX13_ND</v>
+      </c>
+      <c r="F67" s="2">
+        <f>INDEX('LVDS Board HSMC Pinout'!$B$3:$B$162,MATCH(E67,'LVDS Board HSMC Pinout'!$C$3:$C$162,0))</f>
+        <v>127</v>
+      </c>
+      <c r="G67" s="2" t="str">
+        <f>INDEX('DE4 HSMC B Pinout'!$F$4:$F$163,MATCH(F67,'DE4 HSMC B Pinout'!$B$4:$B$163,0))</f>
+        <v>PIN_R8</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B68" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="E68" s="2" t="str">
+        <f t="array" ref="E68">INDEX('LVDS Board Conectors Pinout'!$D$3:$D$82,MATCH(C68&amp;D68,'LVDS Board Conectors Pinout'!$F$3:$F$82&amp;'LVDS Board Conectors Pinout'!$G$3:$G$82,0))</f>
+        <v>TX14_PD</v>
+      </c>
+      <c r="F68" s="2">
+        <f>INDEX('LVDS Board HSMC Pinout'!$B$3:$B$162,MATCH(E68,'LVDS Board HSMC Pinout'!$C$3:$C$162,0))</f>
+        <v>131</v>
+      </c>
+      <c r="G68" s="2" t="str">
+        <f>INDEX('DE4 HSMC B Pinout'!$F$4:$F$163,MATCH(F68,'DE4 HSMC B Pinout'!$B$4:$B$163,0))</f>
+        <v>PIN_U10</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B69" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="E69" s="2" t="str">
+        <f t="array" ref="E69">INDEX('LVDS Board Conectors Pinout'!$D$3:$D$82,MATCH(C69&amp;D69,'LVDS Board Conectors Pinout'!$F$3:$F$82&amp;'LVDS Board Conectors Pinout'!$G$3:$G$82,0))</f>
+        <v>TX14_ND</v>
+      </c>
+      <c r="F69" s="2">
+        <f>INDEX('LVDS Board HSMC Pinout'!$B$3:$B$162,MATCH(E69,'LVDS Board HSMC Pinout'!$C$3:$C$162,0))</f>
+        <v>133</v>
+      </c>
+      <c r="G69" s="2" t="str">
+        <f>INDEX('DE4 HSMC B Pinout'!$F$4:$F$163,MATCH(F69,'DE4 HSMC B Pinout'!$B$4:$B$163,0))</f>
+        <v>PIN_T9</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>489</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="B2:H69" xr:uid="{0722B5DE-1338-4642-AC9C-E973AF1E5FCA}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DD0A7B4-EF46-480B-A233-C7732B3E6E99}">
+  <dimension ref="B2:D268"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>566</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="D3" s="2" t="str">
+        <f>INDEX('Stratix IV GX Pin Mapping'!$G$3:$G$69,MATCH(B3,'Stratix IV GX Pin Mapping'!$B$3:$B$69,0))</f>
+        <v>PIN_V12</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="2" t="str">
+        <f>INDEX('Stratix IV GX Pin Mapping'!$H$3:$H$69,MATCH(B4,'Stratix IV GX Pin Mapping'!$B$3:$B$69,0))</f>
+        <v>2.5 V</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="D5" s="2" t="str">
+        <f>INDEX('Stratix IV GX Pin Mapping'!$G$3:$G$69,MATCH(B5,'Stratix IV GX Pin Mapping'!$B$3:$B$69,0))</f>
+        <v>PIN_V11</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="2" t="str">
+        <f>INDEX('Stratix IV GX Pin Mapping'!$H$3:$H$69,MATCH(B6,'Stratix IV GX Pin Mapping'!$B$3:$B$69,0))</f>
+        <v>2.5 V</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="D7" s="2" t="str">
+        <f>INDEX('Stratix IV GX Pin Mapping'!$G$3:$G$69,MATCH(B7,'Stratix IV GX Pin Mapping'!$B$3:$B$69,0))</f>
+        <v>PIN_W7</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="2" t="str">
+        <f>INDEX('Stratix IV GX Pin Mapping'!$H$3:$H$69,MATCH(B8,'Stratix IV GX Pin Mapping'!$B$3:$B$69,0))</f>
+        <v>2.5 V</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="D9" s="2" t="str">
+        <f>INDEX('Stratix IV GX Pin Mapping'!$G$3:$G$69,MATCH(B9,'Stratix IV GX Pin Mapping'!$B$3:$B$69,0))</f>
+        <v>PIN_C5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="2" t="str">
+        <f>INDEX('Stratix IV GX Pin Mapping'!$H$3:$H$69,MATCH(B10,'Stratix IV GX Pin Mapping'!$B$3:$B$69,0))</f>
+        <v>LVDS</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="D12" s="2" t="str">
+        <f>INDEX('Stratix IV GX Pin Mapping'!$G$3:$G$69,MATCH(B12,'Stratix IV GX Pin Mapping'!$B$3:$B$69,0))</f>
+        <v>PIN_D5</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="2" t="str">
+        <f>INDEX('Stratix IV GX Pin Mapping'!$H$3:$H$69,MATCH(B13,'Stratix IV GX Pin Mapping'!$B$3:$B$69,0))</f>
+        <v>LVDS</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="D15" s="2" t="str">
+        <f>INDEX('Stratix IV GX Pin Mapping'!$G$3:$G$69,MATCH(B15,'Stratix IV GX Pin Mapping'!$B$3:$B$69,0))</f>
+        <v>PIN_C10</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="2" t="str">
+        <f>INDEX('Stratix IV GX Pin Mapping'!$H$3:$H$69,MATCH(B16,'Stratix IV GX Pin Mapping'!$B$3:$B$69,0))</f>
+        <v>LVDS</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="D18" s="2" t="str">
+        <f>INDEX('Stratix IV GX Pin Mapping'!$G$3:$G$69,MATCH(B18,'Stratix IV GX Pin Mapping'!$B$3:$B$69,0))</f>
+        <v>PIN_D10</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="2" t="str">
+        <f>INDEX('Stratix IV GX Pin Mapping'!$H$3:$H$69,MATCH(B19,'Stratix IV GX Pin Mapping'!$B$3:$B$69,0))</f>
+        <v>LVDS</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="D21" s="2" t="str">
+        <f>INDEX('Stratix IV GX Pin Mapping'!$G$3:$G$69,MATCH(B21,'Stratix IV GX Pin Mapping'!$B$3:$B$69,0))</f>
+        <v>PIN_C9</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="2" t="str">
+        <f>INDEX('Stratix IV GX Pin Mapping'!$H$3:$H$69,MATCH(B22,'Stratix IV GX Pin Mapping'!$B$3:$B$69,0))</f>
+        <v>LVDS</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B24" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="D24" s="2" t="str">
+        <f>INDEX('Stratix IV GX Pin Mapping'!$G$3:$G$69,MATCH(B24,'Stratix IV GX Pin Mapping'!$B$3:$B$69,0))</f>
+        <v>PIN_D9</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B25" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="2" t="str">
+        <f>INDEX('Stratix IV GX Pin Mapping'!$H$3:$H$69,MATCH(B25,'Stratix IV GX Pin Mapping'!$B$3:$B$69,0))</f>
+        <v>LVDS</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B26" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B27" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="D27" s="2" t="str">
+        <f>INDEX('Stratix IV GX Pin Mapping'!$G$3:$G$69,MATCH(B27,'Stratix IV GX Pin Mapping'!$B$3:$B$69,0))</f>
+        <v>PIN_C8</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B28" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" s="2" t="str">
+        <f>INDEX('Stratix IV GX Pin Mapping'!$H$3:$H$69,MATCH(B28,'Stratix IV GX Pin Mapping'!$B$3:$B$69,0))</f>
+        <v>LVDS</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B29" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B30" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="D30" s="2" t="str">
+        <f>INDEX('Stratix IV GX Pin Mapping'!$G$3:$G$69,MATCH(B30,'Stratix IV GX Pin Mapping'!$B$3:$B$69,0))</f>
+        <v>PIN_D8</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B31" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" s="2" t="str">
+        <f>INDEX('Stratix IV GX Pin Mapping'!$H$3:$H$69,MATCH(B31,'Stratix IV GX Pin Mapping'!$B$3:$B$69,0))</f>
+        <v>LVDS</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B32" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B33" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="D33" s="2" t="str">
+        <f>INDEX('Stratix IV GX Pin Mapping'!$G$3:$G$69,MATCH(B33,'Stratix IV GX Pin Mapping'!$B$3:$B$69,0))</f>
+        <v>PIN_C7</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B34" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" s="2" t="str">
+        <f>INDEX('Stratix IV GX Pin Mapping'!$H$3:$H$69,MATCH(B34,'Stratix IV GX Pin Mapping'!$B$3:$B$69,0))</f>
+        <v>LVDS</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B35" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B36" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="D36" s="2" t="str">
+        <f>INDEX('Stratix IV GX Pin Mapping'!$G$3:$G$69,MATCH(B36,'Stratix IV GX Pin Mapping'!$B$3:$B$69,0))</f>
+        <v>PIN_D7</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B37" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" s="2" t="str">
+        <f>INDEX('Stratix IV GX Pin Mapping'!$H$3:$H$69,MATCH(B37,'Stratix IV GX Pin Mapping'!$B$3:$B$69,0))</f>
+        <v>LVDS</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B38" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B39" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="D39" s="2" t="str">
+        <f>INDEX('Stratix IV GX Pin Mapping'!$G$3:$G$69,MATCH(B39,'Stratix IV GX Pin Mapping'!$B$3:$B$69,0))</f>
+        <v>PIN_E10</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B40" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D40" s="2" t="str">
+        <f>INDEX('Stratix IV GX Pin Mapping'!$H$3:$H$69,MATCH(B40,'Stratix IV GX Pin Mapping'!$B$3:$B$69,0))</f>
+        <v>LVDS</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B41" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B42" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="D42" s="2" t="str">
+        <f>INDEX('Stratix IV GX Pin Mapping'!$G$3:$G$69,MATCH(B42,'Stratix IV GX Pin Mapping'!$B$3:$B$69,0))</f>
+        <v>PIN_F10</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B43" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D43" s="2" t="str">
+        <f>INDEX('Stratix IV GX Pin Mapping'!$H$3:$H$69,MATCH(B43,'Stratix IV GX Pin Mapping'!$B$3:$B$69,0))</f>
+        <v>LVDS</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B44" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B45" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="D45" s="2" t="str">
+        <f>INDEX('Stratix IV GX Pin Mapping'!$G$3:$G$69,MATCH(B45,'Stratix IV GX Pin Mapping'!$B$3:$B$69,0))</f>
+        <v>PIN_F5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B46" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D46" s="2" t="str">
+        <f>INDEX('Stratix IV GX Pin Mapping'!$H$3:$H$69,MATCH(B46,'Stratix IV GX Pin Mapping'!$B$3:$B$69,0))</f>
+        <v>LVDS</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B47" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B48" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="D48" s="2" t="str">
+        <f>INDEX('Stratix IV GX Pin Mapping'!$G$3:$G$69,MATCH(B48,'Stratix IV GX Pin Mapping'!$B$3:$B$69,0))</f>
+        <v>PIN_G5</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B49" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D49" s="2" t="str">
+        <f>INDEX('Stratix IV GX Pin Mapping'!$H$3:$H$69,MATCH(B49,'Stratix IV GX Pin Mapping'!$B$3:$B$69,0))</f>
+        <v>LVDS</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B50" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B51" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="D51" s="2" t="str">
+        <f>INDEX('Stratix IV GX Pin Mapping'!$G$3:$G$69,MATCH(B51,'Stratix IV GX Pin Mapping'!$B$3:$B$69,0))</f>
+        <v>PIN_F6</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B52" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D52" s="2" t="str">
+        <f>INDEX('Stratix IV GX Pin Mapping'!$H$3:$H$69,MATCH(B52,'Stratix IV GX Pin Mapping'!$B$3:$B$69,0))</f>
+        <v>LVDS</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B53" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B54" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="D54" s="2" t="str">
+        <f>INDEX('Stratix IV GX Pin Mapping'!$G$3:$G$69,MATCH(B54,'Stratix IV GX Pin Mapping'!$B$3:$B$69,0))</f>
+        <v>PIN_G6</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B55" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D55" s="2" t="str">
+        <f>INDEX('Stratix IV GX Pin Mapping'!$H$3:$H$69,MATCH(B55,'Stratix IV GX Pin Mapping'!$B$3:$B$69,0))</f>
+        <v>LVDS</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B56" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B57" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="D57" s="2" t="str">
+        <f>INDEX('Stratix IV GX Pin Mapping'!$G$3:$G$69,MATCH(B57,'Stratix IV GX Pin Mapping'!$B$3:$B$69,0))</f>
+        <v>PIN_E7</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B58" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D58" s="2" t="str">
+        <f>INDEX('Stratix IV GX Pin Mapping'!$H$3:$H$69,MATCH(B58,'Stratix IV GX Pin Mapping'!$B$3:$B$69,0))</f>
+        <v>LVDS</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B59" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B60" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="D60" s="2" t="str">
+        <f>INDEX('Stratix IV GX Pin Mapping'!$G$3:$G$69,MATCH(B60,'Stratix IV GX Pin Mapping'!$B$3:$B$69,0))</f>
+        <v>PIN_F7</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B61" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D61" s="2" t="str">
+        <f>INDEX('Stratix IV GX Pin Mapping'!$H$3:$H$69,MATCH(B61,'Stratix IV GX Pin Mapping'!$B$3:$B$69,0))</f>
+        <v>LVDS</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B62" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B63" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="D63" s="2" t="str">
+        <f>INDEX('Stratix IV GX Pin Mapping'!$G$3:$G$69,MATCH(B63,'Stratix IV GX Pin Mapping'!$B$3:$B$69,0))</f>
+        <v>PIN_F8</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B64" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D64" s="2" t="str">
+        <f>INDEX('Stratix IV GX Pin Mapping'!$H$3:$H$69,MATCH(B64,'Stratix IV GX Pin Mapping'!$B$3:$B$69,0))</f>
+        <v>LVDS</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B65" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B66" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="D66" s="2" t="str">
+        <f>INDEX('Stratix IV GX Pin Mapping'!$G$3:$G$69,MATCH(B66,'Stratix IV GX Pin Mapping'!$B$3:$B$69,0))</f>
+        <v>PIN_G8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B67" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D67" s="2" t="str">
+        <f>INDEX('Stratix IV GX Pin Mapping'!$H$3:$H$69,MATCH(B67,'Stratix IV GX Pin Mapping'!$B$3:$B$69,0))</f>
+        <v>LVDS</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B68" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B69" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="D69" s="2" t="str">
+        <f>INDEX('Stratix IV GX Pin Mapping'!$G$3:$G$69,MATCH(B69,'Stratix IV GX Pin Mapping'!$B$3:$B$69,0))</f>
+        <v>PIN_F9</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B70" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D70" s="2" t="str">
+        <f>INDEX('Stratix IV GX Pin Mapping'!$H$3:$H$69,MATCH(B70,'Stratix IV GX Pin Mapping'!$B$3:$B$69,0))</f>
+        <v>LVDS</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B71" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B72" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="D72" s="2" t="str">
+        <f>INDEX('Stratix IV GX Pin Mapping'!$G$3:$G$69,MATCH(B72,'Stratix IV GX Pin Mapping'!$B$3:$B$69,0))</f>
+        <v>PIN_G9</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B73" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D73" s="2" t="str">
+        <f>INDEX('Stratix IV GX Pin Mapping'!$H$3:$H$69,MATCH(B73,'Stratix IV GX Pin Mapping'!$B$3:$B$69,0))</f>
+        <v>LVDS</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B74" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B75" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="D75" s="2" t="str">
+        <f>INDEX('Stratix IV GX Pin Mapping'!$G$3:$G$69,MATCH(B75,'Stratix IV GX Pin Mapping'!$B$3:$B$69,0))</f>
+        <v>PIN_N5</v>
+      </c>
+    </row>
+    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B76" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D76" s="2" t="str">
+        <f>INDEX('Stratix IV GX Pin Mapping'!$H$3:$H$69,MATCH(B76,'Stratix IV GX Pin Mapping'!$B$3:$B$69,0))</f>
+        <v>LVDS</v>
+      </c>
+    </row>
+    <row r="77" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B77" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="78" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B78" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="D78" s="2" t="str">
+        <f>INDEX('Stratix IV GX Pin Mapping'!$G$3:$G$69,MATCH(B78,'Stratix IV GX Pin Mapping'!$B$3:$B$69,0))</f>
+        <v>PIN_N6</v>
+      </c>
+    </row>
+    <row r="79" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B79" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D79" s="2" t="str">
+        <f>INDEX('Stratix IV GX Pin Mapping'!$H$3:$H$69,MATCH(B79,'Stratix IV GX Pin Mapping'!$B$3:$B$69,0))</f>
+        <v>LVDS</v>
+      </c>
+    </row>
+    <row r="80" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B80" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B81" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="D81" s="2" t="str">
+        <f>INDEX('Stratix IV GX Pin Mapping'!$G$3:$G$69,MATCH(B81,'Stratix IV GX Pin Mapping'!$B$3:$B$69,0))</f>
+        <v>PIN_L5</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B82" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D82" s="2" t="str">
+        <f>INDEX('Stratix IV GX Pin Mapping'!$H$3:$H$69,MATCH(B82,'Stratix IV GX Pin Mapping'!$B$3:$B$69,0))</f>
+        <v>LVDS</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B83" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="84" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B84" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="D84" s="2" t="str">
+        <f>INDEX('Stratix IV GX Pin Mapping'!$G$3:$G$69,MATCH(B84,'Stratix IV GX Pin Mapping'!$B$3:$B$69,0))</f>
+        <v>PIN_M6</v>
+      </c>
+    </row>
+    <row r="85" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B85" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D85" s="2" t="str">
+        <f>INDEX('Stratix IV GX Pin Mapping'!$H$3:$H$69,MATCH(B85,'Stratix IV GX Pin Mapping'!$B$3:$B$69,0))</f>
+        <v>LVDS</v>
+      </c>
+    </row>
+    <row r="86" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B86" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="87" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B87" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="D87" s="2" t="str">
+        <f>INDEX('Stratix IV GX Pin Mapping'!$G$3:$G$69,MATCH(B87,'Stratix IV GX Pin Mapping'!$B$3:$B$69,0))</f>
+        <v>PIN_R5</v>
+      </c>
+    </row>
+    <row r="88" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B88" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D88" s="2" t="str">
+        <f>INDEX('Stratix IV GX Pin Mapping'!$H$3:$H$69,MATCH(B88,'Stratix IV GX Pin Mapping'!$B$3:$B$69,0))</f>
+        <v>LVDS</v>
+      </c>
+    </row>
+    <row r="89" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B89" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="90" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B90" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="D90" s="2" t="str">
+        <f>INDEX('Stratix IV GX Pin Mapping'!$G$3:$G$69,MATCH(B90,'Stratix IV GX Pin Mapping'!$B$3:$B$69,0))</f>
+        <v>PIN_R6</v>
+      </c>
+    </row>
+    <row r="91" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B91" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D91" s="2" t="str">
+        <f>INDEX('Stratix IV GX Pin Mapping'!$H$3:$H$69,MATCH(B91,'Stratix IV GX Pin Mapping'!$B$3:$B$69,0))</f>
+        <v>LVDS</v>
+      </c>
+    </row>
+    <row r="92" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B92" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="93" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B93" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="D93" s="2" t="str">
+        <f>INDEX('Stratix IV GX Pin Mapping'!$G$3:$G$69,MATCH(B93,'Stratix IV GX Pin Mapping'!$B$3:$B$69,0))</f>
+        <v>PIN_P6</v>
+      </c>
+    </row>
+    <row r="94" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B94" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D94" s="2" t="str">
+        <f>INDEX('Stratix IV GX Pin Mapping'!$H$3:$H$69,MATCH(B94,'Stratix IV GX Pin Mapping'!$B$3:$B$69,0))</f>
+        <v>LVDS</v>
+      </c>
+    </row>
+    <row r="95" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B95" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="96" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B96" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="D96" s="2" t="str">
+        <f>INDEX('Stratix IV GX Pin Mapping'!$G$3:$G$69,MATCH(B96,'Stratix IV GX Pin Mapping'!$B$3:$B$69,0))</f>
+        <v>PIN_R7</v>
+      </c>
+    </row>
+    <row r="97" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B97" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D97" s="2" t="str">
+        <f>INDEX('Stratix IV GX Pin Mapping'!$H$3:$H$69,MATCH(B97,'Stratix IV GX Pin Mapping'!$B$3:$B$69,0))</f>
+        <v>LVDS</v>
+      </c>
+    </row>
+    <row r="98" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B98" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="99" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B99" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="D99" s="2" t="str">
+        <f>INDEX('Stratix IV GX Pin Mapping'!$G$3:$G$69,MATCH(B99,'Stratix IV GX Pin Mapping'!$B$3:$B$69,0))</f>
+        <v>PIN_U5</v>
+      </c>
+    </row>
+    <row r="100" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B100" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D100" s="2" t="str">
+        <f>INDEX('Stratix IV GX Pin Mapping'!$H$3:$H$69,MATCH(B100,'Stratix IV GX Pin Mapping'!$B$3:$B$69,0))</f>
+        <v>LVDS</v>
+      </c>
+    </row>
+    <row r="101" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B101" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="102" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B102" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="D102" s="2" t="str">
+        <f>INDEX('Stratix IV GX Pin Mapping'!$G$3:$G$69,MATCH(B102,'Stratix IV GX Pin Mapping'!$B$3:$B$69,0))</f>
+        <v>PIN_V6</v>
+      </c>
+    </row>
+    <row r="103" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B103" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D103" s="2" t="str">
+        <f>INDEX('Stratix IV GX Pin Mapping'!$H$3:$H$69,MATCH(B103,'Stratix IV GX Pin Mapping'!$B$3:$B$69,0))</f>
+        <v>LVDS</v>
+      </c>
+    </row>
+    <row r="104" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B104" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="105" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B105" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="D105" s="2" t="str">
+        <f>INDEX('Stratix IV GX Pin Mapping'!$G$3:$G$69,MATCH(B105,'Stratix IV GX Pin Mapping'!$B$3:$B$69,0))</f>
+        <v>PIN_N10</v>
+      </c>
+    </row>
+    <row r="106" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B106" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D106" s="2" t="str">
+        <f>INDEX('Stratix IV GX Pin Mapping'!$H$3:$H$69,MATCH(B106,'Stratix IV GX Pin Mapping'!$B$3:$B$69,0))</f>
+        <v>LVDS</v>
+      </c>
+    </row>
+    <row r="107" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B107" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="108" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B108" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="D108" s="2" t="str">
+        <f>INDEX('Stratix IV GX Pin Mapping'!$G$3:$G$69,MATCH(B108,'Stratix IV GX Pin Mapping'!$B$3:$B$69,0))</f>
+        <v>PIN_N11</v>
+      </c>
+    </row>
+    <row r="109" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B109" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D109" s="2" t="str">
+        <f>INDEX('Stratix IV GX Pin Mapping'!$H$3:$H$69,MATCH(B109,'Stratix IV GX Pin Mapping'!$B$3:$B$69,0))</f>
+        <v>LVDS</v>
+      </c>
+    </row>
+    <row r="110" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B110" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="111" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B111" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="D111" s="2" t="str">
+        <f>INDEX('Stratix IV GX Pin Mapping'!$G$3:$G$69,MATCH(B111,'Stratix IV GX Pin Mapping'!$B$3:$B$69,0))</f>
+        <v>PIN_N12</v>
+      </c>
+    </row>
+    <row r="112" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B112" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D112" s="2" t="str">
+        <f>INDEX('Stratix IV GX Pin Mapping'!$H$3:$H$69,MATCH(B112,'Stratix IV GX Pin Mapping'!$B$3:$B$69,0))</f>
+        <v>LVDS</v>
+      </c>
+    </row>
+    <row r="113" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B113" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="114" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B114" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="D114" s="2" t="str">
+        <f>INDEX('Stratix IV GX Pin Mapping'!$G$3:$G$69,MATCH(B114,'Stratix IV GX Pin Mapping'!$B$3:$B$69,0))</f>
+        <v>PIN_N12</v>
+      </c>
+    </row>
+    <row r="115" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B115" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D115" s="2" t="str">
+        <f>INDEX('Stratix IV GX Pin Mapping'!$H$3:$H$69,MATCH(B115,'Stratix IV GX Pin Mapping'!$B$3:$B$69,0))</f>
+        <v>LVDS</v>
+      </c>
+    </row>
+    <row r="116" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B116" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="117" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B117" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="D117" s="2" t="str">
+        <f>INDEX('Stratix IV GX Pin Mapping'!$G$3:$G$69,MATCH(B117,'Stratix IV GX Pin Mapping'!$B$3:$B$69,0))</f>
+        <v>PIN_J9</v>
+      </c>
+    </row>
+    <row r="118" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B118" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D118" s="2" t="str">
+        <f>INDEX('Stratix IV GX Pin Mapping'!$H$3:$H$69,MATCH(B118,'Stratix IV GX Pin Mapping'!$B$3:$B$69,0))</f>
+        <v>LVDS</v>
+      </c>
+    </row>
+    <row r="119" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B119" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="120" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B120" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="D120" s="2" t="str">
+        <f>INDEX('Stratix IV GX Pin Mapping'!$G$3:$G$69,MATCH(B120,'Stratix IV GX Pin Mapping'!$B$3:$B$69,0))</f>
+        <v>PIN_K9</v>
+      </c>
+    </row>
+    <row r="121" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B121" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D121" s="2" t="str">
+        <f>INDEX('Stratix IV GX Pin Mapping'!$H$3:$H$69,MATCH(B121,'Stratix IV GX Pin Mapping'!$B$3:$B$69,0))</f>
+        <v>LVDS</v>
+      </c>
+    </row>
+    <row r="122" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B122" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="123" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B123" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="D123" s="2" t="str">
+        <f>INDEX('Stratix IV GX Pin Mapping'!$G$3:$G$69,MATCH(B123,'Stratix IV GX Pin Mapping'!$B$3:$B$69,0))</f>
+        <v>PIN_J10</v>
+      </c>
+    </row>
+    <row r="124" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B124" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D124" s="2" t="str">
+        <f>INDEX('Stratix IV GX Pin Mapping'!$H$3:$H$69,MATCH(B124,'Stratix IV GX Pin Mapping'!$B$3:$B$69,0))</f>
+        <v>LVDS</v>
+      </c>
+    </row>
+    <row r="125" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B125" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="126" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B126" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="D126" s="2" t="str">
+        <f>INDEX('Stratix IV GX Pin Mapping'!$G$3:$G$69,MATCH(B126,'Stratix IV GX Pin Mapping'!$B$3:$B$69,0))</f>
+        <v>PIN_K10</v>
+      </c>
+    </row>
+    <row r="127" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B127" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D127" s="2" t="str">
+        <f>INDEX('Stratix IV GX Pin Mapping'!$H$3:$H$69,MATCH(B127,'Stratix IV GX Pin Mapping'!$B$3:$B$69,0))</f>
+        <v>LVDS</v>
+      </c>
+    </row>
+    <row r="128" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B128" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="129" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B129" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="D129" s="2" t="str">
+        <f>INDEX('Stratix IV GX Pin Mapping'!$G$3:$G$69,MATCH(B129,'Stratix IV GX Pin Mapping'!$B$3:$B$69,0))</f>
+        <v>PIN_P13</v>
+      </c>
+    </row>
+    <row r="130" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B130" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D130" s="2" t="str">
+        <f>INDEX('Stratix IV GX Pin Mapping'!$H$3:$H$69,MATCH(B130,'Stratix IV GX Pin Mapping'!$B$3:$B$69,0))</f>
+        <v>LVDS</v>
+      </c>
+    </row>
+    <row r="131" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B131" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="132" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B132" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="D132" s="2" t="str">
+        <f>INDEX('Stratix IV GX Pin Mapping'!$G$3:$G$69,MATCH(B132,'Stratix IV GX Pin Mapping'!$B$3:$B$69,0))</f>
+        <v>PIN_R13</v>
+      </c>
+    </row>
+    <row r="133" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B133" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D133" s="2" t="str">
+        <f>INDEX('Stratix IV GX Pin Mapping'!$H$3:$H$69,MATCH(B133,'Stratix IV GX Pin Mapping'!$B$3:$B$69,0))</f>
+        <v>LVDS</v>
+      </c>
+    </row>
+    <row r="134" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B134" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="135" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B135" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="D135" s="2" t="str">
+        <f>INDEX('Stratix IV GX Pin Mapping'!$G$3:$G$69,MATCH(B135,'Stratix IV GX Pin Mapping'!$B$3:$B$69,0))</f>
+        <v>PIN_G7</v>
+      </c>
+    </row>
+    <row r="136" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B136" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D136" s="2" t="str">
+        <f>INDEX('Stratix IV GX Pin Mapping'!$H$3:$H$69,MATCH(B136,'Stratix IV GX Pin Mapping'!$B$3:$B$69,0))</f>
+        <v>LVDS</v>
+      </c>
+    </row>
+    <row r="137" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B137" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="138" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B138" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="D138" s="2" t="str">
+        <f>INDEX('Stratix IV GX Pin Mapping'!$G$3:$G$69,MATCH(B138,'Stratix IV GX Pin Mapping'!$B$3:$B$69,0))</f>
+        <v>PIN_H7</v>
+      </c>
+    </row>
+    <row r="139" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B139" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D139" s="2" t="str">
+        <f>INDEX('Stratix IV GX Pin Mapping'!$H$3:$H$69,MATCH(B139,'Stratix IV GX Pin Mapping'!$B$3:$B$69,0))</f>
+        <v>LVDS</v>
+      </c>
+    </row>
+    <row r="140" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B140" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="141" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B141" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="D141" s="2" t="str">
+        <f>INDEX('Stratix IV GX Pin Mapping'!$G$3:$G$69,MATCH(B141,'Stratix IV GX Pin Mapping'!$B$3:$B$69,0))</f>
+        <v>PIN_R11</v>
+      </c>
+    </row>
+    <row r="142" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B142" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D142" s="2" t="str">
+        <f>INDEX('Stratix IV GX Pin Mapping'!$H$3:$H$69,MATCH(B142,'Stratix IV GX Pin Mapping'!$B$3:$B$69,0))</f>
+        <v>LVDS</v>
+      </c>
+    </row>
+    <row r="143" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B143" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="144" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B144" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="D144" s="2" t="str">
+        <f>INDEX('Stratix IV GX Pin Mapping'!$G$3:$G$69,MATCH(B144,'Stratix IV GX Pin Mapping'!$B$3:$B$69,0))</f>
+        <v>PIN_R12</v>
+      </c>
+    </row>
+    <row r="145" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B145" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D145" s="2" t="str">
+        <f>INDEX('Stratix IV GX Pin Mapping'!$H$3:$H$69,MATCH(B145,'Stratix IV GX Pin Mapping'!$B$3:$B$69,0))</f>
+        <v>LVDS</v>
+      </c>
+    </row>
+    <row r="146" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B146" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="147" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B147" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="D147" s="2" t="str">
+        <f>INDEX('Stratix IV GX Pin Mapping'!$G$3:$G$69,MATCH(B147,'Stratix IV GX Pin Mapping'!$B$3:$B$69,0))</f>
+        <v>PIN_T12</v>
+      </c>
+    </row>
+    <row r="148" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B148" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D148" s="2" t="str">
+        <f>INDEX('Stratix IV GX Pin Mapping'!$H$3:$H$69,MATCH(B148,'Stratix IV GX Pin Mapping'!$B$3:$B$69,0))</f>
+        <v>LVDS</v>
+      </c>
+    </row>
+    <row r="149" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B149" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="150" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B150" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="D150" s="2" t="str">
+        <f>INDEX('Stratix IV GX Pin Mapping'!$G$3:$G$69,MATCH(B150,'Stratix IV GX Pin Mapping'!$B$3:$B$69,0))</f>
+        <v>PIN_T13</v>
+      </c>
+    </row>
+    <row r="151" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B151" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D151" s="2" t="str">
+        <f>INDEX('Stratix IV GX Pin Mapping'!$H$3:$H$69,MATCH(B151,'Stratix IV GX Pin Mapping'!$B$3:$B$69,0))</f>
+        <v>LVDS</v>
+      </c>
+    </row>
+    <row r="152" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B152" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="153" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B153" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="D153" s="2" t="str">
+        <f>INDEX('Stratix IV GX Pin Mapping'!$G$3:$G$69,MATCH(B153,'Stratix IV GX Pin Mapping'!$B$3:$B$69,0))</f>
+        <v>PIN_L11</v>
+      </c>
+    </row>
+    <row r="154" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B154" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D154" s="2" t="str">
+        <f>INDEX('Stratix IV GX Pin Mapping'!$H$3:$H$69,MATCH(B154,'Stratix IV GX Pin Mapping'!$B$3:$B$69,0))</f>
+        <v>LVDS</v>
+      </c>
+    </row>
+    <row r="155" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B155" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="156" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B156" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="D156" s="2" t="str">
+        <f>INDEX('Stratix IV GX Pin Mapping'!$G$3:$G$69,MATCH(B156,'Stratix IV GX Pin Mapping'!$B$3:$B$69,0))</f>
+        <v>PIN_M11</v>
+      </c>
+    </row>
+    <row r="157" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B157" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D157" s="2" t="str">
+        <f>INDEX('Stratix IV GX Pin Mapping'!$H$3:$H$69,MATCH(B157,'Stratix IV GX Pin Mapping'!$B$3:$B$69,0))</f>
+        <v>LVDS</v>
+      </c>
+    </row>
+    <row r="158" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B158" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="159" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B159" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="D159" s="2" t="str">
+        <f>INDEX('Stratix IV GX Pin Mapping'!$G$3:$G$69,MATCH(B159,'Stratix IV GX Pin Mapping'!$B$3:$B$69,0))</f>
+        <v>PIN_P8</v>
+      </c>
+    </row>
+    <row r="160" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B160" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D160" s="2" t="str">
+        <f>INDEX('Stratix IV GX Pin Mapping'!$H$3:$H$69,MATCH(B160,'Stratix IV GX Pin Mapping'!$B$3:$B$69,0))</f>
+        <v>LVDS</v>
+      </c>
+    </row>
+    <row r="161" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B161" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="162" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B162" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="D162" s="2" t="str">
+        <f>INDEX('Stratix IV GX Pin Mapping'!$G$3:$G$69,MATCH(B162,'Stratix IV GX Pin Mapping'!$B$3:$B$69,0))</f>
+        <v>PIN_N9</v>
+      </c>
+    </row>
+    <row r="163" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B163" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D163" s="2" t="str">
+        <f>INDEX('Stratix IV GX Pin Mapping'!$H$3:$H$69,MATCH(B163,'Stratix IV GX Pin Mapping'!$B$3:$B$69,0))</f>
+        <v>LVDS</v>
+      </c>
+    </row>
+    <row r="164" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B164" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="165" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B165" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="D165" s="2" t="str">
+        <f>INDEX('Stratix IV GX Pin Mapping'!$G$3:$G$69,MATCH(B165,'Stratix IV GX Pin Mapping'!$B$3:$B$69,0))</f>
+        <v>PIN_L10</v>
+      </c>
+    </row>
+    <row r="166" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B166" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D166" s="2" t="str">
+        <f>INDEX('Stratix IV GX Pin Mapping'!$H$3:$H$69,MATCH(B166,'Stratix IV GX Pin Mapping'!$B$3:$B$69,0))</f>
+        <v>LVDS</v>
+      </c>
+    </row>
+    <row r="167" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B167" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="168" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B168" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="D168" s="2" t="str">
+        <f>INDEX('Stratix IV GX Pin Mapping'!$G$3:$G$69,MATCH(B168,'Stratix IV GX Pin Mapping'!$B$3:$B$69,0))</f>
+        <v>PIN_M10</v>
+      </c>
+    </row>
+    <row r="169" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B169" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D169" s="2" t="str">
+        <f>INDEX('Stratix IV GX Pin Mapping'!$H$3:$H$69,MATCH(B169,'Stratix IV GX Pin Mapping'!$B$3:$B$69,0))</f>
+        <v>LVDS</v>
+      </c>
+    </row>
+    <row r="170" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B170" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="171" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B171" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="D171" s="2" t="str">
+        <f>INDEX('Stratix IV GX Pin Mapping'!$G$3:$G$69,MATCH(B171,'Stratix IV GX Pin Mapping'!$B$3:$B$69,0))</f>
+        <v>PIN_M7</v>
+      </c>
+    </row>
+    <row r="172" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B172" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D172" s="2" t="str">
+        <f>INDEX('Stratix IV GX Pin Mapping'!$H$3:$H$69,MATCH(B172,'Stratix IV GX Pin Mapping'!$B$3:$B$69,0))</f>
+        <v>LVDS</v>
+      </c>
+    </row>
+    <row r="173" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B173" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="174" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B174" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="D174" s="2" t="str">
+        <f>INDEX('Stratix IV GX Pin Mapping'!$G$3:$G$69,MATCH(B174,'Stratix IV GX Pin Mapping'!$B$3:$B$69,0))</f>
+        <v>PIN_M8</v>
+      </c>
+    </row>
+    <row r="175" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B175" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D175" s="2" t="str">
+        <f>INDEX('Stratix IV GX Pin Mapping'!$H$3:$H$69,MATCH(B175,'Stratix IV GX Pin Mapping'!$B$3:$B$69,0))</f>
+        <v>LVDS</v>
+      </c>
+    </row>
+    <row r="176" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B176" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="177" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B177" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="D177" s="2" t="str">
+        <f>INDEX('Stratix IV GX Pin Mapping'!$G$3:$G$69,MATCH(B177,'Stratix IV GX Pin Mapping'!$B$3:$B$69,0))</f>
+        <v>PIN_V9</v>
+      </c>
+    </row>
+    <row r="178" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B178" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D178" s="2" t="str">
+        <f>INDEX('Stratix IV GX Pin Mapping'!$H$3:$H$69,MATCH(B178,'Stratix IV GX Pin Mapping'!$B$3:$B$69,0))</f>
+        <v>LVDS</v>
+      </c>
+    </row>
+    <row r="179" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B179" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="180" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B180" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="D180" s="2" t="str">
+        <f>INDEX('Stratix IV GX Pin Mapping'!$G$3:$G$69,MATCH(B180,'Stratix IV GX Pin Mapping'!$B$3:$B$69,0))</f>
+        <v>PIN_V10</v>
+      </c>
+    </row>
+    <row r="181" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B181" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D181" s="2" t="str">
+        <f>INDEX('Stratix IV GX Pin Mapping'!$H$3:$H$69,MATCH(B181,'Stratix IV GX Pin Mapping'!$B$3:$B$69,0))</f>
+        <v>LVDS</v>
+      </c>
+    </row>
+    <row r="182" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B182" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="183" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B183" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="D183" s="2" t="str">
+        <f>INDEX('Stratix IV GX Pin Mapping'!$G$3:$G$69,MATCH(B183,'Stratix IV GX Pin Mapping'!$B$3:$B$69,0))</f>
+        <v>PIN_R10</v>
+      </c>
+    </row>
+    <row r="184" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B184" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D184" s="2" t="str">
+        <f>INDEX('Stratix IV GX Pin Mapping'!$H$3:$H$69,MATCH(B184,'Stratix IV GX Pin Mapping'!$B$3:$B$69,0))</f>
+        <v>LVDS</v>
+      </c>
+    </row>
+    <row r="185" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B185" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="186" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B186" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="D186" s="2" t="str">
+        <f>INDEX('Stratix IV GX Pin Mapping'!$G$3:$G$69,MATCH(B186,'Stratix IV GX Pin Mapping'!$B$3:$B$69,0))</f>
+        <v>PIN_T10</v>
+      </c>
+    </row>
+    <row r="187" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B187" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D187" s="2" t="str">
+        <f>INDEX('Stratix IV GX Pin Mapping'!$H$3:$H$69,MATCH(B187,'Stratix IV GX Pin Mapping'!$B$3:$B$69,0))</f>
+        <v>LVDS</v>
+      </c>
+    </row>
+    <row r="188" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B188" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="189" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B189" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="D189" s="2" t="str">
+        <f>INDEX('Stratix IV GX Pin Mapping'!$G$3:$G$69,MATCH(B189,'Stratix IV GX Pin Mapping'!$B$3:$B$69,0))</f>
+        <v>PIN_R8</v>
+      </c>
+    </row>
+    <row r="190" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B190" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D190" s="2" t="str">
+        <f>INDEX('Stratix IV GX Pin Mapping'!$H$3:$H$69,MATCH(B190,'Stratix IV GX Pin Mapping'!$B$3:$B$69,0))</f>
+        <v>LVDS</v>
+      </c>
+    </row>
+    <row r="191" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B191" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="192" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B192" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="D192" s="2" t="str">
+        <f>INDEX('Stratix IV GX Pin Mapping'!$G$3:$G$69,MATCH(B192,'Stratix IV GX Pin Mapping'!$B$3:$B$69,0))</f>
+        <v>PIN_R9</v>
+      </c>
+    </row>
+    <row r="193" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B193" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D193" s="2" t="str">
+        <f>INDEX('Stratix IV GX Pin Mapping'!$H$3:$H$69,MATCH(B193,'Stratix IV GX Pin Mapping'!$B$3:$B$69,0))</f>
+        <v>LVDS</v>
+      </c>
+    </row>
+    <row r="194" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B194" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="D194" s="2" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="195" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B195" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="D195" s="2" t="str">
+        <f>INDEX('Stratix IV GX Pin Mapping'!$G$3:$G$69,MATCH(B195,'Stratix IV GX Pin Mapping'!$B$3:$B$69,0))</f>
+        <v>PIN_T9</v>
+      </c>
+    </row>
+    <row r="196" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B196" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D196" s="2" t="str">
+        <f>INDEX('Stratix IV GX Pin Mapping'!$H$3:$H$69,MATCH(B196,'Stratix IV GX Pin Mapping'!$B$3:$B$69,0))</f>
+        <v>LVDS</v>
+      </c>
+    </row>
+    <row r="197" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B197" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="198" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B198" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="D198" s="2" t="str">
+        <f>INDEX('Stratix IV GX Pin Mapping'!$G$3:$G$69,MATCH(B198,'Stratix IV GX Pin Mapping'!$B$3:$B$69,0))</f>
+        <v>PIN_U10</v>
+      </c>
+    </row>
+    <row r="199" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B199" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D199" s="2" t="str">
+        <f>INDEX('Stratix IV GX Pin Mapping'!$H$3:$H$69,MATCH(B199,'Stratix IV GX Pin Mapping'!$B$3:$B$69,0))</f>
+        <v>LVDS</v>
+      </c>
+    </row>
+    <row r="200" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B200" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="202" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B202" s="2"/>
+    </row>
+    <row r="203" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B203" s="2"/>
+    </row>
+    <row r="204" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B204" s="2"/>
+    </row>
+    <row r="205" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B205" s="2"/>
+    </row>
+    <row r="206" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B206" s="2"/>
+    </row>
+    <row r="207" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B207" s="2"/>
+    </row>
+    <row r="208" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B208" s="2"/>
+    </row>
+    <row r="209" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B209" s="2"/>
+    </row>
+    <row r="210" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B210" s="2"/>
+    </row>
+    <row r="211" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B211" s="2"/>
+    </row>
+    <row r="212" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B212" s="2"/>
+    </row>
+    <row r="213" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B213" s="2"/>
+    </row>
+    <row r="214" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B214" s="2"/>
+    </row>
+    <row r="215" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B215" s="2"/>
+    </row>
+    <row r="216" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B216" s="2"/>
+    </row>
+    <row r="217" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B217" s="2"/>
+    </row>
+    <row r="218" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B218" s="2"/>
+    </row>
+    <row r="219" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B219" s="2"/>
+    </row>
+    <row r="220" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B220" s="2"/>
+    </row>
+    <row r="221" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B221" s="2"/>
+    </row>
+    <row r="222" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B222" s="2"/>
+    </row>
+    <row r="223" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B223" s="2"/>
+    </row>
+    <row r="224" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B224" s="2"/>
+    </row>
+    <row r="225" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B225" s="2"/>
+    </row>
+    <row r="226" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B226" s="2"/>
+    </row>
+    <row r="227" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B227" s="2"/>
+    </row>
+    <row r="228" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B228" s="2"/>
+    </row>
+    <row r="229" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B229" s="2"/>
+    </row>
+    <row r="230" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B230" s="2"/>
+    </row>
+    <row r="231" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B231" s="2"/>
+    </row>
+    <row r="232" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B232" s="2"/>
+    </row>
+    <row r="233" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B233" s="2"/>
+    </row>
+    <row r="234" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B234" s="2"/>
+    </row>
+    <row r="235" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B235" s="2"/>
+    </row>
+    <row r="236" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B236" s="2"/>
+    </row>
+    <row r="237" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B237" s="2"/>
+    </row>
+    <row r="238" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B238" s="2"/>
+    </row>
+    <row r="239" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B239" s="2"/>
+    </row>
+    <row r="240" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B240" s="2"/>
+    </row>
+    <row r="241" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B241" s="2"/>
+    </row>
+    <row r="242" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B242" s="2"/>
+    </row>
+    <row r="243" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B243" s="2"/>
+    </row>
+    <row r="244" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B244" s="2"/>
+    </row>
+    <row r="245" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B245" s="2"/>
+    </row>
+    <row r="246" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B246" s="2"/>
+    </row>
+    <row r="247" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B247" s="2"/>
+    </row>
+    <row r="248" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B248" s="2"/>
+    </row>
+    <row r="249" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B249" s="2"/>
+    </row>
+    <row r="250" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B250" s="2"/>
+    </row>
+    <row r="251" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B251" s="2"/>
+    </row>
+    <row r="252" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B252" s="2"/>
+    </row>
+    <row r="253" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B253" s="2"/>
+    </row>
+    <row r="254" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B254" s="2"/>
+    </row>
+    <row r="255" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B255" s="2"/>
+    </row>
+    <row r="256" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B256" s="2"/>
+    </row>
+    <row r="257" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B257" s="2"/>
+    </row>
+    <row r="258" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B258" s="2"/>
+    </row>
+    <row r="259" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B259" s="2"/>
+    </row>
+    <row r="260" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B260" s="2"/>
+    </row>
+    <row r="261" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B261" s="2"/>
+    </row>
+    <row r="262" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B262" s="2"/>
+    </row>
+    <row r="263" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B263" s="2"/>
+    </row>
+    <row r="264" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B264" s="2"/>
+    </row>
+    <row r="265" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B265" s="2"/>
+    </row>
+    <row r="266" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B266" s="2"/>
+    </row>
+    <row r="267" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B267" s="2"/>
+    </row>
+    <row r="268" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B268" s="2"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="B2:D200" xr:uid="{33336FC8-01FF-4171-9854-FA1EA74E0004}">
+    <sortState ref="B3:D200">
+      <sortCondition ref="B2:B200"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/LVDS Buffers/HSMC_B_Pinout.xlsx
+++ b/LVDS Buffers/HSMC_B_Pinout.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rfranca\Dev\GitHub\SimuCam_Development\LVDS Buffers\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rfranca\Development\GitHub\SimuCam_Development\LVDS Buffers\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="3855" firstSheet="5" activeTab="6" xr2:uid="{5A5778FA-B7D5-4E74-ADCB-8E59276416A1}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="3855" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="DE4 HSMC B Pinout" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'SpaceWire - Axon Conector'!$B$2:$F$22</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Stratix IV GX Pin Mapping'!$B$2:$H$69</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1744,7 +1744,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1794,10 +1794,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2077,7 +2077,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F163"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
@@ -2094,13 +2094,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
@@ -4849,7 +4849,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
   <dimension ref="A2:F252"/>
   <sheetViews>
@@ -6429,7 +6429,7 @@
       <c r="A252" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="B2:C162" xr:uid="{6B1E055E-E4AD-4CA9-BECC-E3C88971B1F5}">
+  <autoFilter ref="B2:C162">
     <filterColumn colId="1">
       <filters>
         <filter val="TX13_PD"/>
@@ -6441,11 +6441,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H82"/>
   <sheetViews>
-    <sheetView topLeftCell="C63" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7790,7 +7790,7 @@
         <v>1</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>437</v>
@@ -8483,13 +8483,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B2:H82" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
+  <autoFilter ref="B2:H82"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
   <dimension ref="B2:G58"/>
   <sheetViews>
@@ -8784,7 +8784,7 @@
     <row r="57" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="58" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <autoFilter ref="B2:E58" xr:uid="{00000000-0009-0000-0000-000004000000}">
+  <autoFilter ref="B2:E58">
     <filterColumn colId="0">
       <filters>
         <filter val="SpW G"/>
@@ -8800,7 +8800,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -9172,7 +9172,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B2:F20" xr:uid="{00000000-0009-0000-0000-000005000000}">
+  <autoFilter ref="B2:F20">
     <sortState ref="B3:F22">
       <sortCondition ref="E2:E20"/>
     </sortState>
@@ -9182,7 +9182,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A829D7B-85B9-4BEE-B1F5-E8ECF0CB652C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H69"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -9199,7 +9199,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
+      <c r="A2" s="5"/>
       <c r="B2" s="4" t="s">
         <v>563</v>
       </c>
@@ -9491,15 +9491,15 @@
       </c>
       <c r="E13" s="2" t="str">
         <f t="array" ref="E13">INDEX('LVDS Board Conectors Pinout'!$D$3:$D$82,MATCH(C13&amp;D13,'LVDS Board Conectors Pinout'!$F$3:$F$82&amp;'LVDS Board Conectors Pinout'!$G$3:$G$82,0))</f>
-        <v>TX4_PD</v>
+        <v>TX4_ND</v>
       </c>
       <c r="F13" s="2">
         <f>INDEX('LVDS Board HSMC Pinout'!$B$3:$B$162,MATCH(E13,'LVDS Board HSMC Pinout'!$C$3:$C$162,0))</f>
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G13" s="2" t="str">
         <f>INDEX('DE4 HSMC B Pinout'!$F$4:$F$163,MATCH(F13,'DE4 HSMC B Pinout'!$B$4:$B$163,0))</f>
-        <v>PIN_N12</v>
+        <v>PIN_M12</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>489</v>
@@ -10962,14 +10962,14 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B2:H69" xr:uid="{0722B5DE-1338-4642-AC9C-E973AF1E5FCA}"/>
+  <autoFilter ref="B2:H69"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DD0A7B4-EF46-480B-A233-C7732B3E6E99}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D268"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -12263,7 +12263,7 @@
       </c>
       <c r="D111" s="2" t="str">
         <f>INDEX('Stratix IV GX Pin Mapping'!$G$3:$G$69,MATCH(B111,'Stratix IV GX Pin Mapping'!$B$3:$B$69,0))</f>
-        <v>PIN_N12</v>
+        <v>PIN_M12</v>
       </c>
     </row>
     <row r="112" spans="2:4" x14ac:dyDescent="0.25">
@@ -13506,7 +13506,7 @@
       <c r="B268" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="B2:D200" xr:uid="{33336FC8-01FF-4171-9854-FA1EA74E0004}">
+  <autoFilter ref="B2:D200">
     <sortState ref="B3:D200">
       <sortCondition ref="B2:B200"/>
     </sortState>

--- a/LVDS Buffers/HSMC_B_Pinout.xlsx
+++ b/LVDS Buffers/HSMC_B_Pinout.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="3855" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="3855" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="DE4 HSMC B Pinout" sheetId="1" r:id="rId1"/>
@@ -9183,9 +9183,12 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A2:H69"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H70" sqref="H70"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -9222,7 +9225,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>564</v>
       </c>
@@ -9247,7 +9250,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>560</v>
       </c>
@@ -9272,7 +9275,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>561</v>
       </c>
@@ -9505,7 +9508,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>504</v>
       </c>
@@ -9531,7 +9534,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>505</v>
       </c>
@@ -9557,7 +9560,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
         <v>506</v>
       </c>
@@ -9583,7 +9586,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>507</v>
       </c>
@@ -9609,7 +9612,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
         <v>508</v>
       </c>
@@ -9635,7 +9638,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>509</v>
       </c>
@@ -9661,7 +9664,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
         <v>510</v>
       </c>
@@ -9687,7 +9690,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
         <v>511</v>
       </c>
@@ -9713,7 +9716,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
         <v>512</v>
       </c>
@@ -9739,7 +9742,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
         <v>513</v>
       </c>
@@ -9765,7 +9768,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
         <v>514</v>
       </c>
@@ -9791,7 +9794,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
         <v>515</v>
       </c>
@@ -9817,7 +9820,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
         <v>516</v>
       </c>
@@ -9843,7 +9846,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
         <v>517</v>
       </c>
@@ -9869,7 +9872,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
         <v>518</v>
       </c>
@@ -9895,7 +9898,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B29" s="2" t="s">
         <v>519</v>
       </c>
@@ -9921,7 +9924,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
         <v>520</v>
       </c>
@@ -9947,7 +9950,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B31" s="2" t="s">
         <v>521</v>
       </c>
@@ -9973,7 +9976,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B32" s="2" t="s">
         <v>522</v>
       </c>
@@ -9999,7 +10002,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
         <v>523</v>
       </c>
@@ -10025,7 +10028,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B34" s="2" t="s">
         <v>524</v>
       </c>
@@ -10051,7 +10054,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B35" s="2" t="s">
         <v>525</v>
       </c>
@@ -10077,7 +10080,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B36" s="2" t="s">
         <v>526</v>
       </c>
@@ -10103,7 +10106,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B37" s="2" t="s">
         <v>527</v>
       </c>
@@ -10129,7 +10132,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B38" s="2" t="s">
         <v>528</v>
       </c>
@@ -10155,7 +10158,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B39" s="2" t="s">
         <v>529</v>
       </c>
@@ -10181,7 +10184,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B40" s="2" t="s">
         <v>530</v>
       </c>
@@ -10207,7 +10210,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B41" s="2" t="s">
         <v>531</v>
       </c>
@@ -10233,7 +10236,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B42" s="2" t="s">
         <v>532</v>
       </c>
@@ -10259,7 +10262,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B43" s="2" t="s">
         <v>533</v>
       </c>
@@ -10285,7 +10288,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B44" s="2" t="s">
         <v>534</v>
       </c>
@@ -10311,7 +10314,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B45" s="2" t="s">
         <v>535</v>
       </c>
@@ -10337,7 +10340,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B46" s="2" t="s">
         <v>536</v>
       </c>
@@ -10363,7 +10366,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B47" s="2" t="s">
         <v>537</v>
       </c>
@@ -10389,7 +10392,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B48" s="2" t="s">
         <v>538</v>
       </c>
@@ -10415,7 +10418,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B49" s="2" t="s">
         <v>539</v>
       </c>
@@ -10441,7 +10444,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B50" s="2" t="s">
         <v>540</v>
       </c>
@@ -10467,7 +10470,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B51" s="2" t="s">
         <v>541</v>
       </c>
@@ -10493,7 +10496,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B52" s="2" t="s">
         <v>542</v>
       </c>
@@ -10519,7 +10522,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B53" s="2" t="s">
         <v>543</v>
       </c>
@@ -10545,7 +10548,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B54" s="2" t="s">
         <v>544</v>
       </c>
@@ -10571,7 +10574,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B55" s="2" t="s">
         <v>545</v>
       </c>
@@ -10597,7 +10600,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B56" s="2" t="s">
         <v>546</v>
       </c>
@@ -10623,7 +10626,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B57" s="2" t="s">
         <v>547</v>
       </c>
@@ -10649,7 +10652,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B58" s="2" t="s">
         <v>548</v>
       </c>
@@ -10675,7 +10678,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B59" s="2" t="s">
         <v>549</v>
       </c>
@@ -10701,7 +10704,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B60" s="2" t="s">
         <v>550</v>
       </c>
@@ -10727,7 +10730,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B61" s="2" t="s">
         <v>551</v>
       </c>
@@ -10753,7 +10756,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B62" s="2" t="s">
         <v>552</v>
       </c>
@@ -10779,7 +10782,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B63" s="2" t="s">
         <v>553</v>
       </c>
@@ -10805,7 +10808,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B64" s="2" t="s">
         <v>554</v>
       </c>
@@ -10831,7 +10834,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B65" s="2" t="s">
         <v>555</v>
       </c>
@@ -10857,7 +10860,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B66" s="2" t="s">
         <v>556</v>
       </c>
@@ -10883,7 +10886,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B67" s="2" t="s">
         <v>557</v>
       </c>
@@ -10909,7 +10912,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B68" s="2" t="s">
         <v>558</v>
       </c>
@@ -10935,7 +10938,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B69" s="2" t="s">
         <v>559</v>
       </c>
@@ -10962,7 +10965,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B2:H69"/>
+  <autoFilter ref="B2:H69">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="SpW A"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -10970,9 +10979,12 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="B2:D268"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -10992,7 +11004,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>560</v>
       </c>
@@ -11004,7 +11016,7 @@
         <v>PIN_V12</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>560</v>
       </c>
@@ -11016,7 +11028,7 @@
         <v>2.5 V</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>561</v>
       </c>
@@ -11028,7 +11040,7 @@
         <v>PIN_V11</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>561</v>
       </c>
@@ -11040,7 +11052,7 @@
         <v>2.5 V</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>564</v>
       </c>
@@ -11052,7 +11064,7 @@
         <v>PIN_W7</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>564</v>
       </c>
@@ -11204,7 +11216,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
         <v>505</v>
       </c>
@@ -11216,7 +11228,7 @@
         <v>PIN_C9</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
         <v>505</v>
       </c>
@@ -11228,7 +11240,7 @@
         <v>LVDS</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
         <v>505</v>
       </c>
@@ -11239,7 +11251,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
         <v>504</v>
       </c>
@@ -11251,7 +11263,7 @@
         <v>PIN_D9</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
         <v>504</v>
       </c>
@@ -11263,7 +11275,7 @@
         <v>LVDS</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
         <v>504</v>
       </c>
@@ -11274,7 +11286,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
         <v>507</v>
       </c>
@@ -11286,7 +11298,7 @@
         <v>PIN_C8</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
         <v>507</v>
       </c>
@@ -11298,7 +11310,7 @@
         <v>LVDS</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B29" s="2" t="s">
         <v>507</v>
       </c>
@@ -11309,7 +11321,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
         <v>506</v>
       </c>
@@ -11321,7 +11333,7 @@
         <v>PIN_D8</v>
       </c>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B31" s="2" t="s">
         <v>506</v>
       </c>
@@ -11333,7 +11345,7 @@
         <v>LVDS</v>
       </c>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B32" s="2" t="s">
         <v>506</v>
       </c>
@@ -11344,7 +11356,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
         <v>513</v>
       </c>
@@ -11356,7 +11368,7 @@
         <v>PIN_C7</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B34" s="2" t="s">
         <v>513</v>
       </c>
@@ -11368,7 +11380,7 @@
         <v>LVDS</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B35" s="2" t="s">
         <v>513</v>
       </c>
@@ -11379,7 +11391,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B36" s="2" t="s">
         <v>512</v>
       </c>
@@ -11391,7 +11403,7 @@
         <v>PIN_D7</v>
       </c>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B37" s="2" t="s">
         <v>512</v>
       </c>
@@ -11403,7 +11415,7 @@
         <v>LVDS</v>
       </c>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B38" s="2" t="s">
         <v>512</v>
       </c>
@@ -11414,7 +11426,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B39" s="2" t="s">
         <v>515</v>
       </c>
@@ -11426,7 +11438,7 @@
         <v>PIN_E10</v>
       </c>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B40" s="2" t="s">
         <v>515</v>
       </c>
@@ -11438,7 +11450,7 @@
         <v>LVDS</v>
       </c>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B41" s="2" t="s">
         <v>515</v>
       </c>
@@ -11449,7 +11461,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B42" s="2" t="s">
         <v>514</v>
       </c>
@@ -11461,7 +11473,7 @@
         <v>PIN_F10</v>
       </c>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B43" s="2" t="s">
         <v>514</v>
       </c>
@@ -11473,7 +11485,7 @@
         <v>LVDS</v>
       </c>
     </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B44" s="2" t="s">
         <v>514</v>
       </c>
@@ -11484,7 +11496,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B45" s="2" t="s">
         <v>521</v>
       </c>
@@ -11496,7 +11508,7 @@
         <v>PIN_F5</v>
       </c>
     </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B46" s="2" t="s">
         <v>521</v>
       </c>
@@ -11508,7 +11520,7 @@
         <v>LVDS</v>
       </c>
     </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B47" s="2" t="s">
         <v>521</v>
       </c>
@@ -11519,7 +11531,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B48" s="2" t="s">
         <v>520</v>
       </c>
@@ -11531,7 +11543,7 @@
         <v>PIN_G5</v>
       </c>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B49" s="2" t="s">
         <v>520</v>
       </c>
@@ -11543,7 +11555,7 @@
         <v>LVDS</v>
       </c>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B50" s="2" t="s">
         <v>520</v>
       </c>
@@ -11554,7 +11566,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B51" s="2" t="s">
         <v>523</v>
       </c>
@@ -11566,7 +11578,7 @@
         <v>PIN_F6</v>
       </c>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B52" s="2" t="s">
         <v>523</v>
       </c>
@@ -11578,7 +11590,7 @@
         <v>LVDS</v>
       </c>
     </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B53" s="2" t="s">
         <v>523</v>
       </c>
@@ -11589,7 +11601,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B54" s="2" t="s">
         <v>522</v>
       </c>
@@ -11601,7 +11613,7 @@
         <v>PIN_G6</v>
       </c>
     </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B55" s="2" t="s">
         <v>522</v>
       </c>
@@ -11613,7 +11625,7 @@
         <v>LVDS</v>
       </c>
     </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B56" s="2" t="s">
         <v>522</v>
       </c>
@@ -11624,7 +11636,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B57" s="2" t="s">
         <v>529</v>
       </c>
@@ -11636,7 +11648,7 @@
         <v>PIN_E7</v>
       </c>
     </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B58" s="2" t="s">
         <v>529</v>
       </c>
@@ -11648,7 +11660,7 @@
         <v>LVDS</v>
       </c>
     </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B59" s="2" t="s">
         <v>529</v>
       </c>
@@ -11659,7 +11671,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B60" s="2" t="s">
         <v>528</v>
       </c>
@@ -11671,7 +11683,7 @@
         <v>PIN_F7</v>
       </c>
     </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B61" s="2" t="s">
         <v>528</v>
       </c>
@@ -11683,7 +11695,7 @@
         <v>LVDS</v>
       </c>
     </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B62" s="2" t="s">
         <v>528</v>
       </c>
@@ -11694,7 +11706,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B63" s="2" t="s">
         <v>531</v>
       </c>
@@ -11706,7 +11718,7 @@
         <v>PIN_F8</v>
       </c>
     </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B64" s="2" t="s">
         <v>531</v>
       </c>
@@ -11718,7 +11730,7 @@
         <v>LVDS</v>
       </c>
     </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B65" s="2" t="s">
         <v>531</v>
       </c>
@@ -11729,7 +11741,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B66" s="2" t="s">
         <v>530</v>
       </c>
@@ -11741,7 +11753,7 @@
         <v>PIN_G8</v>
       </c>
     </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B67" s="2" t="s">
         <v>530</v>
       </c>
@@ -11753,7 +11765,7 @@
         <v>LVDS</v>
       </c>
     </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B68" s="2" t="s">
         <v>530</v>
       </c>
@@ -11764,7 +11776,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B69" s="2" t="s">
         <v>537</v>
       </c>
@@ -11776,7 +11788,7 @@
         <v>PIN_F9</v>
       </c>
     </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B70" s="2" t="s">
         <v>537</v>
       </c>
@@ -11788,7 +11800,7 @@
         <v>LVDS</v>
       </c>
     </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B71" s="2" t="s">
         <v>537</v>
       </c>
@@ -11799,7 +11811,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B72" s="2" t="s">
         <v>536</v>
       </c>
@@ -11811,7 +11823,7 @@
         <v>PIN_G9</v>
       </c>
     </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B73" s="2" t="s">
         <v>536</v>
       </c>
@@ -11823,7 +11835,7 @@
         <v>LVDS</v>
       </c>
     </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B74" s="2" t="s">
         <v>536</v>
       </c>
@@ -11834,7 +11846,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B75" s="2" t="s">
         <v>539</v>
       </c>
@@ -11846,7 +11858,7 @@
         <v>PIN_N5</v>
       </c>
     </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B76" s="2" t="s">
         <v>539</v>
       </c>
@@ -11858,7 +11870,7 @@
         <v>LVDS</v>
       </c>
     </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B77" s="2" t="s">
         <v>539</v>
       </c>
@@ -11869,7 +11881,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B78" s="2" t="s">
         <v>538</v>
       </c>
@@ -11881,7 +11893,7 @@
         <v>PIN_N6</v>
       </c>
     </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B79" s="2" t="s">
         <v>538</v>
       </c>
@@ -11893,7 +11905,7 @@
         <v>LVDS</v>
       </c>
     </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B80" s="2" t="s">
         <v>538</v>
       </c>
@@ -11904,7 +11916,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B81" s="2" t="s">
         <v>545</v>
       </c>
@@ -11916,7 +11928,7 @@
         <v>PIN_L5</v>
       </c>
     </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B82" s="2" t="s">
         <v>545</v>
       </c>
@@ -11928,7 +11940,7 @@
         <v>LVDS</v>
       </c>
     </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B83" s="2" t="s">
         <v>545</v>
       </c>
@@ -11939,7 +11951,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B84" s="2" t="s">
         <v>544</v>
       </c>
@@ -11951,7 +11963,7 @@
         <v>PIN_M6</v>
       </c>
     </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B85" s="2" t="s">
         <v>544</v>
       </c>
@@ -11963,7 +11975,7 @@
         <v>LVDS</v>
       </c>
     </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B86" s="2" t="s">
         <v>544</v>
       </c>
@@ -11974,7 +11986,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B87" s="2" t="s">
         <v>547</v>
       </c>
@@ -11986,7 +11998,7 @@
         <v>PIN_R5</v>
       </c>
     </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B88" s="2" t="s">
         <v>547</v>
       </c>
@@ -11998,7 +12010,7 @@
         <v>LVDS</v>
       </c>
     </row>
-    <row r="89" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B89" s="2" t="s">
         <v>547</v>
       </c>
@@ -12009,7 +12021,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="90" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B90" s="2" t="s">
         <v>546</v>
       </c>
@@ -12021,7 +12033,7 @@
         <v>PIN_R6</v>
       </c>
     </row>
-    <row r="91" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B91" s="2" t="s">
         <v>546</v>
       </c>
@@ -12033,7 +12045,7 @@
         <v>LVDS</v>
       </c>
     </row>
-    <row r="92" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B92" s="2" t="s">
         <v>546</v>
       </c>
@@ -12044,7 +12056,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="93" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B93" s="2" t="s">
         <v>553</v>
       </c>
@@ -12056,7 +12068,7 @@
         <v>PIN_P6</v>
       </c>
     </row>
-    <row r="94" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B94" s="2" t="s">
         <v>553</v>
       </c>
@@ -12068,7 +12080,7 @@
         <v>LVDS</v>
       </c>
     </row>
-    <row r="95" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B95" s="2" t="s">
         <v>553</v>
       </c>
@@ -12079,7 +12091,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="96" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B96" s="2" t="s">
         <v>552</v>
       </c>
@@ -12091,7 +12103,7 @@
         <v>PIN_R7</v>
       </c>
     </row>
-    <row r="97" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B97" s="2" t="s">
         <v>552</v>
       </c>
@@ -12103,7 +12115,7 @@
         <v>LVDS</v>
       </c>
     </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B98" s="2" t="s">
         <v>552</v>
       </c>
@@ -12114,7 +12126,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="99" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B99" s="2" t="s">
         <v>555</v>
       </c>
@@ -12126,7 +12138,7 @@
         <v>PIN_U5</v>
       </c>
     </row>
-    <row r="100" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B100" s="2" t="s">
         <v>555</v>
       </c>
@@ -12138,7 +12150,7 @@
         <v>LVDS</v>
       </c>
     </row>
-    <row r="101" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B101" s="2" t="s">
         <v>555</v>
       </c>
@@ -12149,7 +12161,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="102" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B102" s="2" t="s">
         <v>554</v>
       </c>
@@ -12161,7 +12173,7 @@
         <v>PIN_V6</v>
       </c>
     </row>
-    <row r="103" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B103" s="2" t="s">
         <v>554</v>
       </c>
@@ -12173,7 +12185,7 @@
         <v>LVDS</v>
       </c>
     </row>
-    <row r="104" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B104" s="2" t="s">
         <v>554</v>
       </c>
@@ -12324,7 +12336,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="117" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B117" s="2" t="s">
         <v>509</v>
       </c>
@@ -12336,7 +12348,7 @@
         <v>PIN_J9</v>
       </c>
     </row>
-    <row r="118" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B118" s="2" t="s">
         <v>509</v>
       </c>
@@ -12348,7 +12360,7 @@
         <v>LVDS</v>
       </c>
     </row>
-    <row r="119" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B119" s="2" t="s">
         <v>509</v>
       </c>
@@ -12359,7 +12371,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="120" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B120" s="2" t="s">
         <v>508</v>
       </c>
@@ -12371,7 +12383,7 @@
         <v>PIN_K9</v>
       </c>
     </row>
-    <row r="121" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B121" s="2" t="s">
         <v>508</v>
       </c>
@@ -12383,7 +12395,7 @@
         <v>LVDS</v>
       </c>
     </row>
-    <row r="122" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B122" s="2" t="s">
         <v>508</v>
       </c>
@@ -12394,7 +12406,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="123" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B123" s="2" t="s">
         <v>511</v>
       </c>
@@ -12406,7 +12418,7 @@
         <v>PIN_J10</v>
       </c>
     </row>
-    <row r="124" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B124" s="2" t="s">
         <v>511</v>
       </c>
@@ -12418,7 +12430,7 @@
         <v>LVDS</v>
       </c>
     </row>
-    <row r="125" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B125" s="2" t="s">
         <v>511</v>
       </c>
@@ -12429,7 +12441,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="126" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B126" s="2" t="s">
         <v>510</v>
       </c>
@@ -12441,7 +12453,7 @@
         <v>PIN_K10</v>
       </c>
     </row>
-    <row r="127" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B127" s="2" t="s">
         <v>510</v>
       </c>
@@ -12453,7 +12465,7 @@
         <v>LVDS</v>
       </c>
     </row>
-    <row r="128" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B128" s="2" t="s">
         <v>510</v>
       </c>
@@ -12464,7 +12476,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="129" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B129" s="2" t="s">
         <v>517</v>
       </c>
@@ -12476,7 +12488,7 @@
         <v>PIN_P13</v>
       </c>
     </row>
-    <row r="130" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B130" s="2" t="s">
         <v>517</v>
       </c>
@@ -12488,7 +12500,7 @@
         <v>LVDS</v>
       </c>
     </row>
-    <row r="131" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B131" s="2" t="s">
         <v>517</v>
       </c>
@@ -12499,7 +12511,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="132" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B132" s="2" t="s">
         <v>516</v>
       </c>
@@ -12511,7 +12523,7 @@
         <v>PIN_R13</v>
       </c>
     </row>
-    <row r="133" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B133" s="2" t="s">
         <v>516</v>
       </c>
@@ -12523,7 +12535,7 @@
         <v>LVDS</v>
       </c>
     </row>
-    <row r="134" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B134" s="2" t="s">
         <v>516</v>
       </c>
@@ -12534,7 +12546,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="135" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B135" s="2" t="s">
         <v>519</v>
       </c>
@@ -12546,7 +12558,7 @@
         <v>PIN_G7</v>
       </c>
     </row>
-    <row r="136" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B136" s="2" t="s">
         <v>519</v>
       </c>
@@ -12558,7 +12570,7 @@
         <v>LVDS</v>
       </c>
     </row>
-    <row r="137" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B137" s="2" t="s">
         <v>519</v>
       </c>
@@ -12569,7 +12581,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="138" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B138" s="2" t="s">
         <v>518</v>
       </c>
@@ -12581,7 +12593,7 @@
         <v>PIN_H7</v>
       </c>
     </row>
-    <row r="139" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B139" s="2" t="s">
         <v>518</v>
       </c>
@@ -12593,7 +12605,7 @@
         <v>LVDS</v>
       </c>
     </row>
-    <row r="140" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B140" s="2" t="s">
         <v>518</v>
       </c>
@@ -12604,7 +12616,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="141" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B141" s="2" t="s">
         <v>525</v>
       </c>
@@ -12616,7 +12628,7 @@
         <v>PIN_R11</v>
       </c>
     </row>
-    <row r="142" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B142" s="2" t="s">
         <v>525</v>
       </c>
@@ -12628,7 +12640,7 @@
         <v>LVDS</v>
       </c>
     </row>
-    <row r="143" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B143" s="2" t="s">
         <v>525</v>
       </c>
@@ -12639,7 +12651,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="144" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B144" s="2" t="s">
         <v>524</v>
       </c>
@@ -12651,7 +12663,7 @@
         <v>PIN_R12</v>
       </c>
     </row>
-    <row r="145" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B145" s="2" t="s">
         <v>524</v>
       </c>
@@ -12663,7 +12675,7 @@
         <v>LVDS</v>
       </c>
     </row>
-    <row r="146" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B146" s="2" t="s">
         <v>524</v>
       </c>
@@ -12674,7 +12686,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="147" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B147" s="2" t="s">
         <v>527</v>
       </c>
@@ -12686,7 +12698,7 @@
         <v>PIN_T12</v>
       </c>
     </row>
-    <row r="148" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B148" s="2" t="s">
         <v>527</v>
       </c>
@@ -12698,7 +12710,7 @@
         <v>LVDS</v>
       </c>
     </row>
-    <row r="149" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B149" s="2" t="s">
         <v>527</v>
       </c>
@@ -12709,7 +12721,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="150" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B150" s="2" t="s">
         <v>526</v>
       </c>
@@ -12721,7 +12733,7 @@
         <v>PIN_T13</v>
       </c>
     </row>
-    <row r="151" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B151" s="2" t="s">
         <v>526</v>
       </c>
@@ -12733,7 +12745,7 @@
         <v>LVDS</v>
       </c>
     </row>
-    <row r="152" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B152" s="2" t="s">
         <v>526</v>
       </c>
@@ -12744,7 +12756,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="153" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B153" s="2" t="s">
         <v>533</v>
       </c>
@@ -12756,7 +12768,7 @@
         <v>PIN_L11</v>
       </c>
     </row>
-    <row r="154" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B154" s="2" t="s">
         <v>533</v>
       </c>
@@ -12768,7 +12780,7 @@
         <v>LVDS</v>
       </c>
     </row>
-    <row r="155" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B155" s="2" t="s">
         <v>533</v>
       </c>
@@ -12779,7 +12791,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="156" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B156" s="2" t="s">
         <v>532</v>
       </c>
@@ -12791,7 +12803,7 @@
         <v>PIN_M11</v>
       </c>
     </row>
-    <row r="157" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B157" s="2" t="s">
         <v>532</v>
       </c>
@@ -12803,7 +12815,7 @@
         <v>LVDS</v>
       </c>
     </row>
-    <row r="158" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B158" s="2" t="s">
         <v>532</v>
       </c>
@@ -12814,7 +12826,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="159" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B159" s="2" t="s">
         <v>535</v>
       </c>
@@ -12826,7 +12838,7 @@
         <v>PIN_P8</v>
       </c>
     </row>
-    <row r="160" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B160" s="2" t="s">
         <v>535</v>
       </c>
@@ -12838,7 +12850,7 @@
         <v>LVDS</v>
       </c>
     </row>
-    <row r="161" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B161" s="2" t="s">
         <v>535</v>
       </c>
@@ -12849,7 +12861,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="162" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B162" s="2" t="s">
         <v>534</v>
       </c>
@@ -12861,7 +12873,7 @@
         <v>PIN_N9</v>
       </c>
     </row>
-    <row r="163" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B163" s="2" t="s">
         <v>534</v>
       </c>
@@ -12873,7 +12885,7 @@
         <v>LVDS</v>
       </c>
     </row>
-    <row r="164" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B164" s="2" t="s">
         <v>534</v>
       </c>
@@ -12884,7 +12896,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="165" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B165" s="2" t="s">
         <v>541</v>
       </c>
@@ -12896,7 +12908,7 @@
         <v>PIN_L10</v>
       </c>
     </row>
-    <row r="166" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B166" s="2" t="s">
         <v>541</v>
       </c>
@@ -12908,7 +12920,7 @@
         <v>LVDS</v>
       </c>
     </row>
-    <row r="167" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B167" s="2" t="s">
         <v>541</v>
       </c>
@@ -12919,7 +12931,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="168" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B168" s="2" t="s">
         <v>540</v>
       </c>
@@ -12931,7 +12943,7 @@
         <v>PIN_M10</v>
       </c>
     </row>
-    <row r="169" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B169" s="2" t="s">
         <v>540</v>
       </c>
@@ -12943,7 +12955,7 @@
         <v>LVDS</v>
       </c>
     </row>
-    <row r="170" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B170" s="2" t="s">
         <v>540</v>
       </c>
@@ -12954,7 +12966,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="171" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B171" s="2" t="s">
         <v>543</v>
       </c>
@@ -12966,7 +12978,7 @@
         <v>PIN_M7</v>
       </c>
     </row>
-    <row r="172" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B172" s="2" t="s">
         <v>543</v>
       </c>
@@ -12978,7 +12990,7 @@
         <v>LVDS</v>
       </c>
     </row>
-    <row r="173" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B173" s="2" t="s">
         <v>543</v>
       </c>
@@ -12989,7 +13001,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="174" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B174" s="2" t="s">
         <v>542</v>
       </c>
@@ -13001,7 +13013,7 @@
         <v>PIN_M8</v>
       </c>
     </row>
-    <row r="175" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B175" s="2" t="s">
         <v>542</v>
       </c>
@@ -13013,7 +13025,7 @@
         <v>LVDS</v>
       </c>
     </row>
-    <row r="176" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B176" s="2" t="s">
         <v>542</v>
       </c>
@@ -13024,7 +13036,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="177" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B177" s="2" t="s">
         <v>549</v>
       </c>
@@ -13036,7 +13048,7 @@
         <v>PIN_V9</v>
       </c>
     </row>
-    <row r="178" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B178" s="2" t="s">
         <v>549</v>
       </c>
@@ -13048,7 +13060,7 @@
         <v>LVDS</v>
       </c>
     </row>
-    <row r="179" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B179" s="2" t="s">
         <v>549</v>
       </c>
@@ -13059,7 +13071,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="180" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B180" s="2" t="s">
         <v>548</v>
       </c>
@@ -13071,7 +13083,7 @@
         <v>PIN_V10</v>
       </c>
     </row>
-    <row r="181" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B181" s="2" t="s">
         <v>548</v>
       </c>
@@ -13083,7 +13095,7 @@
         <v>LVDS</v>
       </c>
     </row>
-    <row r="182" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B182" s="2" t="s">
         <v>548</v>
       </c>
@@ -13094,7 +13106,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="183" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B183" s="2" t="s">
         <v>551</v>
       </c>
@@ -13106,7 +13118,7 @@
         <v>PIN_R10</v>
       </c>
     </row>
-    <row r="184" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B184" s="2" t="s">
         <v>551</v>
       </c>
@@ -13118,7 +13130,7 @@
         <v>LVDS</v>
       </c>
     </row>
-    <row r="185" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B185" s="2" t="s">
         <v>551</v>
       </c>
@@ -13129,7 +13141,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="186" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B186" s="2" t="s">
         <v>550</v>
       </c>
@@ -13141,7 +13153,7 @@
         <v>PIN_T10</v>
       </c>
     </row>
-    <row r="187" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B187" s="2" t="s">
         <v>550</v>
       </c>
@@ -13153,7 +13165,7 @@
         <v>LVDS</v>
       </c>
     </row>
-    <row r="188" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B188" s="2" t="s">
         <v>550</v>
       </c>
@@ -13164,7 +13176,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="189" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B189" s="2" t="s">
         <v>557</v>
       </c>
@@ -13176,7 +13188,7 @@
         <v>PIN_R8</v>
       </c>
     </row>
-    <row r="190" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B190" s="2" t="s">
         <v>557</v>
       </c>
@@ -13188,7 +13200,7 @@
         <v>LVDS</v>
       </c>
     </row>
-    <row r="191" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B191" s="2" t="s">
         <v>557</v>
       </c>
@@ -13199,7 +13211,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="192" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B192" s="2" t="s">
         <v>556</v>
       </c>
@@ -13211,7 +13223,7 @@
         <v>PIN_R9</v>
       </c>
     </row>
-    <row r="193" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B193" s="2" t="s">
         <v>556</v>
       </c>
@@ -13223,7 +13235,7 @@
         <v>LVDS</v>
       </c>
     </row>
-    <row r="194" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B194" s="2" t="s">
         <v>556</v>
       </c>
@@ -13234,7 +13246,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="195" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B195" s="2" t="s">
         <v>559</v>
       </c>
@@ -13246,7 +13258,7 @@
         <v>PIN_T9</v>
       </c>
     </row>
-    <row r="196" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B196" s="2" t="s">
         <v>559</v>
       </c>
@@ -13258,7 +13270,7 @@
         <v>LVDS</v>
       </c>
     </row>
-    <row r="197" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B197" s="2" t="s">
         <v>559</v>
       </c>
@@ -13269,7 +13281,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="198" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B198" s="2" t="s">
         <v>558</v>
       </c>
@@ -13281,7 +13293,7 @@
         <v>PIN_U10</v>
       </c>
     </row>
-    <row r="199" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B199" s="2" t="s">
         <v>558</v>
       </c>
@@ -13293,7 +13305,7 @@
         <v>LVDS</v>
       </c>
     </row>
-    <row r="200" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B200" s="2" t="s">
         <v>558</v>
       </c>
@@ -13507,6 +13519,18 @@
     </row>
   </sheetData>
   <autoFilter ref="B2:D200">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="HSMB_LVDS_RX_SPWA_DI_N"/>
+        <filter val="HSMB_LVDS_RX_SPWA_DI_P"/>
+        <filter val="HSMB_LVDS_RX_SPWA_SI_N"/>
+        <filter val="HSMB_LVDS_RX_SPWA_SI_P"/>
+        <filter val="HSMB_LVDS_TX_SPWA_DO_N"/>
+        <filter val="HSMB_LVDS_TX_SPWA_DO_P"/>
+        <filter val="HSMB_LVDS_TX_SPWA_SO_N"/>
+        <filter val="HSMB_LVDS_TX_SPWA_SO_P"/>
+      </filters>
+    </filterColumn>
     <sortState ref="B3:D200">
       <sortCondition ref="B2:B200"/>
     </sortState>
